--- a/eg_data/NHANES/PF/Waist2/Foods/Foods.xlsx
+++ b/eg_data/NHANES/PF/Waist2/Foods/Foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist2\Foods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E540E-83D9-4309-BEDA-45AFD9901187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0416B-0109-4DAB-8575-187599F29699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="-2910" windowWidth="26115" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28125" yWindow="-3165" windowWidth="22245" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
   <si>
     <t>KCAL</t>
   </si>
@@ -222,18 +222,40 @@
   </si>
   <si>
     <t>Nutrients adjustment by KCAL --USE THIS--</t>
+  </si>
+  <si>
+    <t>Anova</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DivNA</t>
+  </si>
+  <si>
+    <t>Div0</t>
+  </si>
+  <si>
+    <t>Div1</t>
+  </si>
+  <si>
+    <t>Div2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,14 +279,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,10 +294,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -292,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,11 +357,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -357,25 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -399,26 +423,65 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,20 +762,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -724,16 +789,16 @@
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -766,31 +831,31 @@
       <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="14">
         <v>0.18295094945652199</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="14">
         <v>0.73944302378815097</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="14">
         <v>1.1368618601108</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="14">
         <v>1.4061646759002799</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="15">
         <v>0.58621274902950804</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="15">
         <v>1.1143929552431999</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="15">
         <v>1.4592994855074</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="15">
         <v>1.89958794616503</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="16">
         <v>1.0498513205627999E-121</v>
       </c>
       <c r="M3" s="9" t="str">
@@ -798,7 +863,7 @@
         <v>*</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="P3" s="34"/>
+      <c r="P3" s="25"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
@@ -812,28 +877,28 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="17">
         <v>5.8002972948369598</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="17">
         <v>7.0372894268402204</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="17">
         <v>8.0596675844875296</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="17">
         <v>8.9077567285318597</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="18">
         <v>3.3871550342967902</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="18">
         <v>3.5436256120641101</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="18">
         <v>3.7407350231899601</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="18">
         <v>4.3471158405075601</v>
       </c>
       <c r="L4" s="7">
@@ -843,7 +908,7 @@
         <f t="shared" ref="M4:M8" si="0">IF(L4&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
-      <c r="P4" s="34"/>
+      <c r="P4" s="25"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
     </row>
@@ -857,28 +922,28 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="17">
         <v>11.0492621635936</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="17">
         <v>15.4541793938045</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="17">
         <v>16.887813961647598</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="18">
         <v>16.2121941166866</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="18">
         <v>19.0118043785385</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="18">
         <v>20.636122716293102</v>
       </c>
       <c r="L5" s="7">
@@ -888,7 +953,7 @@
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="P5" s="34"/>
+      <c r="P5" s="25"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
     </row>
@@ -902,28 +967,28 @@
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="17">
         <v>0.80476297934782604</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="17">
         <v>1.0180605439856401</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="17">
         <v>1.25080382963989</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="17">
         <v>1.4129053822714699</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="18">
         <v>0.94377771426720303</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="18">
         <v>1.0074734428616301</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="18">
         <v>1.22448903832413</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="18">
         <v>1.3586364085246001</v>
       </c>
       <c r="L6" s="7">
@@ -933,7 +998,7 @@
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="P6" s="34"/>
+      <c r="P6" s="25"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
     </row>
@@ -947,28 +1012,28 @@
       <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="17">
         <v>1.3737441263587</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="17">
         <v>1.51076845152603</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>1.7714781218836599</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="17">
         <v>1.72295080470914</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="18">
         <v>0.93428129668897797</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="18">
         <v>1.0057319753223299</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="18">
         <v>0.99400571594227705</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="18">
         <v>1.0456873735604399</v>
       </c>
       <c r="L7" s="7">
@@ -978,7 +1043,7 @@
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="P7" s="34"/>
+      <c r="P7" s="25"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
     </row>
@@ -992,16 +1057,16 @@
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="19">
         <v>0</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="19">
         <v>49.630228904847399</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="19">
         <v>105.32069252077601</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="19">
         <v>129.239390581717</v>
       </c>
       <c r="H8" s="5">
@@ -1016,17 +1081,17 @@
       <c r="K8" s="5">
         <v>106.97487550258801</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="23">
         <v>9.4443410000000005E-68</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="34"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1038,16 +1103,16 @@
       <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="19">
         <v>13.8524456521739</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="19">
         <v>15.8936265709156</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="19">
         <v>18.132963988919698</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="19">
         <v>18.608033240997202</v>
       </c>
       <c r="H9" s="5">
@@ -1069,7 +1134,7 @@
         <f t="shared" ref="M9:M20" si="1">IF(L9&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
-      <c r="P9" s="34"/>
+      <c r="P9" s="25"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
@@ -1083,16 +1148,16 @@
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="19">
         <v>1954.17445652174</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="19">
         <v>2037.63779174147</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="19">
         <v>2108.7202216066498</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="19">
         <v>2225.1080332410002</v>
       </c>
       <c r="H10" s="5">
@@ -1114,525 +1179,536 @@
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="P10" s="34"/>
+      <c r="P10" s="25"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="30">
         <v>233.64775543478299</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="30">
         <v>241.29685816876099</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="30">
         <v>251.26076177285299</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="30">
         <v>262.20243767313002</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="31">
         <v>92.892156709723196</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="31">
         <v>91.0013135804287</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="31">
         <v>87.761232493585098</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="31">
         <v>94.430771352392895</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="32">
         <v>1.1233118102720801E-7</v>
       </c>
-      <c r="M11" s="14" t="str">
+      <c r="M11" s="29" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
+      <c r="N11" s="28"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <v>75.582646739130396</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <v>81.721921005385994</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="35">
         <v>85.170470914127407</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="35">
         <v>89.482659279778403</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="36">
         <v>31.300614132705</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="36">
         <v>31.3248547190686</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="36">
         <v>29.6766654858823</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="36">
         <v>32.9395605320939</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="37">
         <v>1.2801219661529599E-17</v>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="34" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
+      <c r="N12" s="33"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="35">
         <v>13.7460326086957</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="35">
         <v>17.9187612208259</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="35">
         <v>22.552493074792199</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="35">
         <v>26.0673130193906</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="36">
         <v>6.4970895746289603</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="36">
         <v>7.6717385987219497</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="36">
         <v>9.6461834358685206</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="36">
         <v>10.807377790404299</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="37">
         <v>3.8670787340887001E-196</v>
       </c>
-      <c r="M13" s="12" t="str">
+      <c r="M13" s="34" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
+      <c r="N13" s="33"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="35">
         <v>75.722364130434798</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <v>80.800978456014406</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="35">
         <v>82.935249307479197</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="35">
         <v>90.700277008310294</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="36">
         <v>33.725294251612098</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="36">
         <v>34.139975082554599</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="36">
         <v>35.062052846329202</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="36">
         <v>37.7728385594692</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="37">
         <v>4.8404808514881801E-14</v>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="34" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
+      <c r="N14" s="33"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="35">
         <v>25.544632065217399</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="35">
         <v>26.095012118491901</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="35">
         <v>24.936494459833799</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="35">
         <v>26.311961218836601</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="36">
         <v>13.0899635751001</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="36">
         <v>12.408769776193299</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="36">
         <v>12.1207108020607</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="36">
         <v>12.2500265499097</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="33">
         <v>0.32447805266602697</v>
       </c>
-      <c r="M15" s="12" t="str">
+      <c r="M15" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
+      <c r="N15" s="33"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="35">
         <v>26.075614402173901</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="35">
         <v>28.544790843806101</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="35">
         <v>30.099698060941801</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="35">
         <v>33.8145332409972</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="36">
         <v>12.047016854068101</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="36">
         <v>12.585692063231299</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="36">
         <v>13.6804557912301</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="36">
         <v>15.6310252466939</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="37">
         <v>3.4144257913363099E-27</v>
       </c>
-      <c r="M16" s="12" t="str">
+      <c r="M16" s="34" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
+      <c r="N16" s="33"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="35">
         <v>16.976972826087</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="35">
         <v>18.7526422800718</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="35">
         <v>20.648328254847598</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="35">
         <v>22.7284141274238</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="36">
         <v>8.4711353166077501</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="36">
         <v>9.0474498082593797</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="36">
         <v>10.02743829441</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="36">
         <v>10.8513297462592</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="37">
         <v>5.5854682546517995E-32</v>
       </c>
-      <c r="M17" s="12" t="str">
+      <c r="M17" s="34" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
+      <c r="N17" s="33"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="35">
         <v>7.9189673913043501</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="35">
         <v>6.4829443447037702</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="35">
         <v>7.3295013850415502</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="35">
         <v>6.6909972299169</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="36">
         <v>20.402173020746702</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="36">
         <v>16.185007591843199</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="36">
         <v>15.2614072372702</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="36">
         <v>17.590970556336</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="33">
         <v>0.200252423105267</v>
       </c>
-      <c r="M18" s="12" t="str">
+      <c r="M18" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
+      <c r="N18" s="33"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="35">
         <v>43.052587228260897</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <v>47.297433123877902</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="35">
         <v>50.748026315789502</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="35">
         <v>56.542947368421103</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="36">
         <v>19.437877223394</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="36">
         <v>20.5365000585379</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="36">
         <v>22.366079278303001</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="36">
         <v>25.173218996722401</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="37">
         <v>2.8724646559630402E-32</v>
       </c>
-      <c r="M19" s="12" t="str">
+      <c r="M19" s="34" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
+      <c r="N19" s="33"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="40">
         <v>16.7207820059783</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="40">
         <v>14.6096521750449</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="40">
         <v>13.0500655706371</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="40">
         <v>12.6009312285319</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="41">
         <v>13.212045099403101</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="41">
         <v>10.814920999185</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="41">
         <v>10.3991557235708</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="41">
         <v>9.6365412749561603</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="42">
         <v>4.5156499825869798E-13</v>
       </c>
-      <c r="M20" s="17" t="str">
+      <c r="M20" s="39" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
+      <c r="N20" s="38"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="12" t="s">
         <v>61</v>
+      </c>
+      <c r="L23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
@@ -1643,16 +1719,16 @@
       <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="13" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1685,31 +1761,31 @@
       <c r="C25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="45">
         <v>0.18295094945652199</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="45">
         <v>0.73944302378815097</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="45">
         <v>1.1368618601108</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="45">
         <v>1.4061646759002799</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="46">
         <v>0.58621274902950804</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="46">
         <v>1.1143929552431999</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="46">
         <v>1.4592994855074</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="46">
         <v>1.89958794616503</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="16">
         <v>1.0498513205627999E-121</v>
       </c>
       <c r="M25" s="9" t="str">
@@ -1728,28 +1804,28 @@
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="43">
         <v>5.8002972948369598</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="43">
         <v>7.0372894268402204</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="43">
         <v>8.0596675844875296</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="43">
         <v>8.9077567285318597</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="44">
         <v>3.3871550342967902</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="44">
         <v>3.5436256120641101</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="44">
         <v>3.7407350231899601</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="44">
         <v>4.3471158405075601</v>
       </c>
       <c r="L26" s="7">
@@ -1770,28 +1846,28 @@
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="43">
         <v>11.0492621635936</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="43">
         <v>15.4541793938045</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="43">
         <v>16.887813961647598</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="44">
         <v>16.2121941166866</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="44">
         <v>19.0118043785385</v>
       </c>
-      <c r="K27" s="27">
+      <c r="K27" s="44">
         <v>20.636122716293102</v>
       </c>
       <c r="L27" s="7">
@@ -1812,28 +1888,28 @@
       <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="43">
         <v>0.80476297934782604</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="43">
         <v>1.0180605439856401</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="43">
         <v>1.25080382963989</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="43">
         <v>1.4129053822714699</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="44">
         <v>0.94377771426720303</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="44">
         <v>1.0074734428616301</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="44">
         <v>1.22448903832413</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="44">
         <v>1.3586364085246001</v>
       </c>
       <c r="L28" s="7">
@@ -1854,28 +1930,28 @@
       <c r="C29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="43">
         <v>1.3737441263587</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="43">
         <v>1.51076845152603</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="43">
         <v>1.7714781218836599</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="43">
         <v>1.72295080470914</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="44">
         <v>0.93428129668897797</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="44">
         <v>1.0057319753223299</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="44">
         <v>0.99400571594227705</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="44">
         <v>1.0456873735604399</v>
       </c>
       <c r="L29" s="7">
@@ -1896,16 +1972,16 @@
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="19">
         <v>0</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="19">
         <v>49.630228904847399</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="19">
         <v>105.32069252077601</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="19">
         <v>129.239390581717</v>
       </c>
       <c r="H30" s="5">
@@ -1920,14 +1996,14 @@
       <c r="K30" s="5">
         <v>106.97487550258801</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="23">
         <v>9.4443410000000005E-68</v>
       </c>
       <c r="M30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>*</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="22" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1941,16 +2017,16 @@
       <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="19">
         <v>13.8524456521739</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="19">
         <v>15.8936265709156</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="19">
         <v>18.132963988919698</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="19">
         <v>18.608033240997202</v>
       </c>
       <c r="H31" s="5">
@@ -1983,16 +2059,16 @@
       <c r="C32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="20">
         <v>1954.17445652174</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="20">
         <v>2037.63779174147</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="20">
         <v>2108.7202216066498</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="20">
         <v>2225.1080332410002</v>
       </c>
       <c r="H32" s="8">
@@ -2007,7 +2083,7 @@
       <c r="K32" s="8">
         <v>742.97397944324598</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="21">
         <v>4.0303682251243398E-11</v>
       </c>
       <c r="M32" s="10" t="str">
@@ -2016,7 +2092,7 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -2026,16 +2102,16 @@
       <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="19">
         <v>240.92472408021001</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="19">
         <v>238.05501624419799</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="19">
         <v>240.06671594557801</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="19">
         <v>237.76345621090201</v>
       </c>
       <c r="H33" s="5">
@@ -2050,7 +2126,7 @@
       <c r="K33" s="5">
         <v>45.281026680544699</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="26">
         <v>0.30264775891721102</v>
       </c>
       <c r="M33" s="3" t="str">
@@ -2082,16 +2158,16 @@
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="19">
         <v>79.090873154806104</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="19">
         <v>81.697296430361803</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="19">
         <v>82.201738831625306</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="19">
         <v>81.744964540343403</v>
       </c>
       <c r="H34" s="5">
@@ -2124,16 +2200,16 @@
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="19">
         <v>14.6315841462399</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="19">
         <v>18.175792222548601</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="19">
         <v>22.3221343771683</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="19">
         <v>24.3240707242913</v>
       </c>
       <c r="H35" s="5">
@@ -2167,16 +2243,16 @@
       <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="19">
         <v>76.753965780510995</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="19">
         <v>78.506666707014006</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="19">
         <v>77.780674785408493</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="19">
         <v>80.784614493553093</v>
       </c>
       <c r="H36" s="5">
@@ -2210,16 +2286,16 @@
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="19">
         <v>25.6229990537399</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="19">
         <v>25.147446966386902</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="19">
         <v>23.1980884956523</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="19">
         <v>23.3431420477168</v>
       </c>
       <c r="H37" s="5">
@@ -2253,16 +2329,16 @@
       <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="19">
         <v>26.471315691472199</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="19">
         <v>27.7857591847226</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="19">
         <v>28.245453411804199</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="19">
         <v>30.116680474197899</v>
       </c>
       <c r="H38" s="5">
@@ -2296,16 +2372,16 @@
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="19">
         <v>17.394304559973001</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="19">
         <v>18.361447499343502</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="19">
         <v>19.485115048546199</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="19">
         <v>20.302946639643199</v>
       </c>
       <c r="H39" s="5">
@@ -2331,88 +2407,88 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="28">
-        <v>7.1735663273710504</v>
-      </c>
-      <c r="E40" s="28">
-        <v>5.9646146613079196</v>
-      </c>
-      <c r="F40" s="28">
-        <v>6.4359744429905703</v>
-      </c>
-      <c r="G40" s="28">
-        <v>5.2249033051735401</v>
+        <v>5</v>
+      </c>
+      <c r="D40" s="19">
+        <v>43.8656202514452</v>
+      </c>
+      <c r="E40" s="19">
+        <v>46.147206684066099</v>
+      </c>
+      <c r="F40" s="19">
+        <v>47.730568460350497</v>
+      </c>
+      <c r="G40" s="19">
+        <v>50.419627113841102</v>
       </c>
       <c r="H40" s="5">
-        <v>16.898905203155099</v>
+        <v>10.7861650294467</v>
       </c>
       <c r="I40" s="5">
-        <v>13.733073097198901</v>
+        <v>11.0959864647277</v>
       </c>
       <c r="J40" s="5">
-        <v>12.931966473987901</v>
+        <v>12.1830404802865</v>
       </c>
       <c r="K40" s="5">
-        <v>12.3867320140624</v>
-      </c>
-      <c r="L40">
-        <v>5.7903000498847598E-2</v>
+        <v>13.7583028270271</v>
+      </c>
+      <c r="L40" s="7">
+        <v>3.72793123688149E-26</v>
       </c>
       <c r="M40" s="3" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v>*</v>
+      </c>
+      <c r="AA40" s="7"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="28">
-        <v>43.8656202514452</v>
-      </c>
-      <c r="E41" s="28">
-        <v>46.147206684066099</v>
-      </c>
-      <c r="F41" s="28">
-        <v>47.730568460350497</v>
-      </c>
-      <c r="G41" s="28">
-        <v>50.419627113841102</v>
+        <v>34</v>
+      </c>
+      <c r="D41" s="19">
+        <v>7.1735663273710504</v>
+      </c>
+      <c r="E41" s="19">
+        <v>5.9646146613079196</v>
+      </c>
+      <c r="F41" s="19">
+        <v>6.4359744429905703</v>
+      </c>
+      <c r="G41" s="19">
+        <v>5.2249033051735401</v>
       </c>
       <c r="H41" s="5">
-        <v>10.7861650294467</v>
+        <v>16.898905203155099</v>
       </c>
       <c r="I41" s="5">
-        <v>11.0959864647277</v>
+        <v>13.733073097198901</v>
       </c>
       <c r="J41" s="5">
-        <v>12.1830404802865</v>
+        <v>12.931966473987901</v>
       </c>
       <c r="K41" s="5">
-        <v>13.7583028270271</v>
-      </c>
-      <c r="L41" s="7">
-        <v>3.72793123688149E-26</v>
+        <v>12.3867320140624</v>
+      </c>
+      <c r="L41" s="27">
+        <v>5.7903000498847598E-2</v>
       </c>
       <c r="M41" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>*</v>
-      </c>
-      <c r="AA41" s="7"/>
+        <f>IF(L41&lt;0.01,"*","")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
@@ -2424,16 +2500,16 @@
       <c r="C42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="20">
         <v>16.649647577247698</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="20">
         <v>13.941390645478901</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="20">
         <v>11.9071613836223</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="20">
         <v>11.095532674471301</v>
       </c>
       <c r="H42" s="8">
@@ -2448,7 +2524,7 @@
       <c r="K42" s="8">
         <v>7.1628873152820098</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="21">
         <v>3.7557936039960502E-36</v>
       </c>
       <c r="M42" s="10" t="str">
@@ -2462,229 +2538,754 @@
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
+      <c r="D44" s="27"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="24"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
+      <c r="D45" s="27"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="24"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="27"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="48"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-    </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-    </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-    </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-    </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-    </row>
-    <row r="53" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-    </row>
-    <row r="54" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-    </row>
-    <row r="55" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f>CONCATENATE(ROUND(D25, 1), " (",ROUND(H25,1),")")</f>
+        <v>0.2 (0.6)</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f>CONCATENATE(ROUND(E25, 1), " (",ROUND(I25,1),")")</f>
+        <v>0.7 (1.1)</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f>CONCATENATE(ROUND(F25, 1), " (",ROUND(J25,1),")")</f>
+        <v>1.1 (1.5)</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f>CONCATENATE(ROUND(G25, 1), " (",ROUND(K25,1),")")</f>
+        <v>1.4 (1.9)</v>
+      </c>
+      <c r="G48" s="47" t="str">
+        <f>IF(H48&lt;0.0001,"&lt;0.0001",IF(H48&lt;0.001,"&lt;0.001",IF(H48&lt;0.01,"&lt;0.01",ROUND(H48,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H48" s="49">
+        <f>L25</f>
+        <v>1.0498513205627999E-121</v>
+      </c>
+      <c r="I48" s="48"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f>CONCATENATE(ROUND(D26, 1), " (",ROUND(H26,1),")")</f>
+        <v>5.8 (3.4)</v>
+      </c>
+      <c r="D49" s="3" t="str">
+        <f>CONCATENATE(ROUND(E26, 1), " (",ROUND(I26,1),")")</f>
+        <v>7 (3.5)</v>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f>CONCATENATE(ROUND(F26, 1), " (",ROUND(J26,1),")")</f>
+        <v>8.1 (3.7)</v>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f>CONCATENATE(ROUND(G26, 1), " (",ROUND(K26,1),")")</f>
+        <v>8.9 (4.3)</v>
+      </c>
+      <c r="G49" s="47" t="str">
+        <f>IF(H49&lt;0.0001,"&lt;0.0001",IF(H49&lt;0.001,"&lt;0.001",IF(H49&lt;0.01,"&lt;0.01",ROUND(H49,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H49" s="49">
+        <f>L26</f>
+        <v>1.6635055820584701E-65</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f>CONCATENATE(ROUND(E27, 1), " (",ROUND(I27,1),")")</f>
+        <v>11 (16.2)</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f>CONCATENATE(ROUND(F27, 1), " (",ROUND(J27,1),")")</f>
+        <v>15.5 (19)</v>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f>CONCATENATE(ROUND(G27, 1), " (",ROUND(K27,1),")")</f>
+        <v>16.9 (20.6)</v>
+      </c>
+      <c r="G50" s="47" t="str">
+        <f>IF(H50&lt;0.0001,"&lt;0.0001",IF(H50&lt;0.001,"&lt;0.001",IF(H50&lt;0.01,"&lt;0.01",ROUND(H50,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H50" s="49">
+        <f>L27</f>
+        <v>4.8632115582192202E-105</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f>CONCATENATE(ROUND(D28, 1), " (",ROUND(H28,1),")")</f>
+        <v>0.8 (0.9)</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f>CONCATENATE(ROUND(E28, 1), " (",ROUND(I28,1),")")</f>
+        <v>1 (1)</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f>CONCATENATE(ROUND(F28, 1), " (",ROUND(J28,1),")")</f>
+        <v>1.3 (1.2)</v>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f>CONCATENATE(ROUND(G28, 1), " (",ROUND(K28,1),")")</f>
+        <v>1.4 (1.4)</v>
+      </c>
+      <c r="G51" s="47" t="str">
+        <f>IF(H51&lt;0.0001,"&lt;0.0001",IF(H51&lt;0.001,"&lt;0.001",IF(H51&lt;0.01,"&lt;0.01",ROUND(H51,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H51" s="49">
+        <f>L28</f>
+        <v>1.03578144240093E-29</v>
+      </c>
+      <c r="I51" s="48"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f>CONCATENATE(ROUND(D29, 1), " (",ROUND(H29,1),")")</f>
+        <v>1.4 (0.9)</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f>CONCATENATE(ROUND(E29, 1), " (",ROUND(I29,1),")")</f>
+        <v>1.5 (1)</v>
+      </c>
+      <c r="E52" s="3" t="str">
+        <f>CONCATENATE(ROUND(F29, 1), " (",ROUND(J29,1),")")</f>
+        <v>1.8 (1)</v>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f>CONCATENATE(ROUND(G29, 1), " (",ROUND(K29,1),")")</f>
+        <v>1.7 (1)</v>
+      </c>
+      <c r="G52" s="47" t="str">
+        <f>IF(H52&lt;0.0001,"&lt;0.0001",IF(H52&lt;0.001,"&lt;0.001",IF(H52&lt;0.01,"&lt;0.01",ROUND(H52,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H52" s="49">
+        <f>L29</f>
+        <v>1.5013294810008501E-16</v>
+      </c>
+      <c r="I52" s="48"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="24"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f>CONCATENATE(ROUND(D30, 0), " (",ROUND(H30,0),")")</f>
+        <v>0 (0)</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f>CONCATENATE(ROUND(E30, 0), " (",ROUND(I30,0),")")</f>
+        <v>50 (57)</v>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f>CONCATENATE(ROUND(F30, 0), " (",ROUND(J30,0),")")</f>
+        <v>105 (102)</v>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f>CONCATENATE(ROUND(G30, 0), " (",ROUND(K30,0),")")</f>
+        <v>129 (107)</v>
+      </c>
+      <c r="G53" s="47" t="str">
+        <f>IF(H53&lt;0.0001,"&lt;0.0001",IF(H53&lt;0.001,"&lt;0.001",IF(H53&lt;0.01,"&lt;0.01",ROUND(H53,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H53" s="49">
+        <f>L30</f>
+        <v>9.4443410000000005E-68</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f>CONCATENATE(ROUND(D31, 0), " (",ROUND(H31,0),")")</f>
+        <v>14 (5)</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f>CONCATENATE(ROUND(E31, 0), " (",ROUND(I31,0),")")</f>
+        <v>16 (5)</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f>CONCATENATE(ROUND(F31, 0), " (",ROUND(J31,0),")")</f>
+        <v>18 (5)</v>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f>CONCATENATE(ROUND(G31, 0), " (",ROUND(K31,0),")")</f>
+        <v>19 (5)</v>
+      </c>
+      <c r="G54" s="47" t="str">
+        <f>IF(H54&lt;0.0001,"&lt;0.0001",IF(H54&lt;0.001,"&lt;0.001",IF(H54&lt;0.01,"&lt;0.01",ROUND(H54,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H54" s="49">
+        <f>L31</f>
+        <v>4.8072698541393398E-98</v>
+      </c>
+      <c r="I54" s="48"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f>CONCATENATE(ROUND(D32, 0), " (",ROUND(H32,0),")")</f>
+        <v>1954 (720)</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f>CONCATENATE(ROUND(E32, 0), " (",ROUND(I32,0),")")</f>
+        <v>2038 (702)</v>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f>CONCATENATE(ROUND(F32, 0), " (",ROUND(J32,0),")")</f>
+        <v>2109 (684)</v>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f>CONCATENATE(ROUND(G32, 0), " (",ROUND(K32,0),")")</f>
+        <v>2225 (743)</v>
+      </c>
+      <c r="G55" s="47" t="str">
+        <f>IF(H55&lt;0.0001,"&lt;0.0001",IF(H55&lt;0.001,"&lt;0.001",IF(H55&lt;0.01,"&lt;0.01",ROUND(H55,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H55" s="49">
+        <f>L32</f>
+        <v>4.0303682251243398E-11</v>
+      </c>
+      <c r="I55" s="48"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="9" t="str">
+        <f>CONCATENATE(ROUND(D33, 0), " (",ROUND(H33,0),")")</f>
+        <v>241 (45)</v>
+      </c>
+      <c r="D56" s="9" t="str">
+        <f>CONCATENATE(ROUND(E33, 0), " (",ROUND(I33,0),")")</f>
+        <v>238 (42)</v>
+      </c>
+      <c r="E56" s="9" t="str">
+        <f>CONCATENATE(ROUND(F33, 0), " (",ROUND(J33,0),")")</f>
+        <v>240 (46)</v>
+      </c>
+      <c r="F56" s="9" t="str">
+        <f>CONCATENATE(ROUND(G33, 0), " (",ROUND(K33,0),")")</f>
+        <v>238 (45)</v>
+      </c>
+      <c r="G56" s="9">
+        <f>IF(H56&lt;0.0001,"&lt;0.0001",IF(H56&lt;0.001,"&lt;0.001",IF(H56&lt;0.01,"&lt;0.01",ROUND(H56,3))))</f>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H56" s="49">
+        <f>L33</f>
+        <v>0.30264775891721102</v>
+      </c>
+      <c r="I56" s="48"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="47" t="str">
+        <f>CONCATENATE(ROUND(D34, 0), " (",ROUND(H34,0),")")</f>
+        <v>79 (23)</v>
+      </c>
+      <c r="D57" s="47" t="str">
+        <f>CONCATENATE(ROUND(E34, 0), " (",ROUND(I34,0),")")</f>
+        <v>82 (21)</v>
+      </c>
+      <c r="E57" s="47" t="str">
+        <f>CONCATENATE(ROUND(F34, 0), " (",ROUND(J34,0),")")</f>
+        <v>82 (20)</v>
+      </c>
+      <c r="F57" s="47" t="str">
+        <f>CONCATENATE(ROUND(G34, 0), " (",ROUND(K34,0),")")</f>
+        <v>82 (20)</v>
+      </c>
+      <c r="G57" s="47" t="str">
+        <f>IF(H57&lt;0.0001,"&lt;0.0001",IF(H57&lt;0.001,"&lt;0.001",IF(H57&lt;0.01,"&lt;0.01",ROUND(H57,3))))</f>
+        <v>&lt;0.01</v>
+      </c>
+      <c r="H57" s="49">
+        <f>L34</f>
+        <v>1.9450024880622199E-3</v>
+      </c>
+      <c r="I57" s="48"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="47" t="str">
+        <f>CONCATENATE(ROUND(D35, 0), " (",ROUND(H35,0),")")</f>
+        <v>15 (6)</v>
+      </c>
+      <c r="D58" s="47" t="str">
+        <f>CONCATENATE(ROUND(E35, 0), " (",ROUND(I35,0),")")</f>
+        <v>18 (7)</v>
+      </c>
+      <c r="E58" s="47" t="str">
+        <f>CONCATENATE(ROUND(F35, 0), " (",ROUND(J35,0),")")</f>
+        <v>22 (9)</v>
+      </c>
+      <c r="F58" s="47" t="str">
+        <f>CONCATENATE(ROUND(G35, 0), " (",ROUND(K35,0),")")</f>
+        <v>24 (9)</v>
+      </c>
+      <c r="G58" s="47" t="str">
+        <f>IF(H58&lt;0.0001,"&lt;0.0001",IF(H58&lt;0.001,"&lt;0.001",IF(H58&lt;0.01,"&lt;0.01",ROUND(H58,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H58" s="49">
+        <f>L35</f>
+        <v>6.2283567032546602E-164</v>
+      </c>
+      <c r="I58" s="48"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="47" t="str">
+        <f>CONCATENATE(ROUND(D36, 0), " (",ROUND(H36,0),")")</f>
+        <v>77 (16)</v>
+      </c>
+      <c r="D59" s="47" t="str">
+        <f>CONCATENATE(ROUND(E36, 0), " (",ROUND(I36,0),")")</f>
+        <v>79 (16)</v>
+      </c>
+      <c r="E59" s="47" t="str">
+        <f>CONCATENATE(ROUND(F36, 0), " (",ROUND(J36,0),")")</f>
+        <v>78 (17)</v>
+      </c>
+      <c r="F59" s="47" t="str">
+        <f>CONCATENATE(ROUND(G36, 0), " (",ROUND(K36,0),")")</f>
+        <v>81 (18)</v>
+      </c>
+      <c r="G59" s="47" t="str">
+        <f>IF(H59&lt;0.0001,"&lt;0.0001",IF(H59&lt;0.001,"&lt;0.001",IF(H59&lt;0.01,"&lt;0.01",ROUND(H59,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H59" s="49">
+        <f>L36</f>
+        <v>6.6575160657740697E-5</v>
+      </c>
+      <c r="I59" s="48"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="47" t="str">
+        <f>CONCATENATE(ROUND(D37, 0), " (",ROUND(H37,0),")")</f>
+        <v>26 (7)</v>
+      </c>
+      <c r="D60" s="47" t="str">
+        <f>CONCATENATE(ROUND(E37, 0), " (",ROUND(I37,0),")")</f>
+        <v>25 (7)</v>
+      </c>
+      <c r="E60" s="47" t="str">
+        <f>CONCATENATE(ROUND(F37, 0), " (",ROUND(J37,0),")")</f>
+        <v>23 (7)</v>
+      </c>
+      <c r="F60" s="47" t="str">
+        <f>CONCATENATE(ROUND(G37, 0), " (",ROUND(K37,0),")")</f>
+        <v>23 (7)</v>
+      </c>
+      <c r="G60" s="47" t="str">
+        <f>IF(H60&lt;0.0001,"&lt;0.0001",IF(H60&lt;0.001,"&lt;0.001",IF(H60&lt;0.01,"&lt;0.01",ROUND(H60,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H60" s="49">
+        <f>L37</f>
+        <v>1.2888568912707299E-12</v>
+      </c>
+      <c r="I60" s="48"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="47" t="str">
+        <f>CONCATENATE(ROUND(D38, 0), " (",ROUND(H38,0),")")</f>
+        <v>26 (7)</v>
+      </c>
+      <c r="D61" s="47" t="str">
+        <f>CONCATENATE(ROUND(E38, 0), " (",ROUND(I38,0),")")</f>
+        <v>28 (7)</v>
+      </c>
+      <c r="E61" s="47" t="str">
+        <f>CONCATENATE(ROUND(F38, 0), " (",ROUND(J38,0),")")</f>
+        <v>28 (8)</v>
+      </c>
+      <c r="F61" s="47" t="str">
+        <f>CONCATENATE(ROUND(G38, 0), " (",ROUND(K38,0),")")</f>
+        <v>30 (9)</v>
+      </c>
+      <c r="G61" s="47" t="str">
+        <f>IF(H61&lt;0.0001,"&lt;0.0001",IF(H61&lt;0.001,"&lt;0.001",IF(H61&lt;0.01,"&lt;0.01",ROUND(H61,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H61" s="49">
+        <f>L38</f>
+        <v>2.1751664148863601E-20</v>
+      </c>
+      <c r="I61" s="48"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="47" t="str">
+        <f>CONCATENATE(ROUND(D39, 0), " (",ROUND(H39,0),")")</f>
+        <v>17 (6)</v>
+      </c>
+      <c r="D62" s="47" t="str">
+        <f>CONCATENATE(ROUND(E39, 0), " (",ROUND(I39,0),")")</f>
+        <v>18 (6)</v>
+      </c>
+      <c r="E62" s="47" t="str">
+        <f>CONCATENATE(ROUND(F39, 0), " (",ROUND(J39,0),")")</f>
+        <v>19 (6)</v>
+      </c>
+      <c r="F62" s="47" t="str">
+        <f>CONCATENATE(ROUND(G39, 0), " (",ROUND(K39,0),")")</f>
+        <v>20 (7)</v>
+      </c>
+      <c r="G62" s="47" t="str">
+        <f>IF(H62&lt;0.0001,"&lt;0.0001",IF(H62&lt;0.001,"&lt;0.001",IF(H62&lt;0.01,"&lt;0.01",ROUND(H62,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H62" s="49">
+        <f>L39</f>
+        <v>1.6510316802959001E-19</v>
+      </c>
+      <c r="I62" s="48"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="47" t="str">
+        <f>CONCATENATE(ROUND(D40, 0), " (",ROUND(H40,0),")")</f>
+        <v>44 (11)</v>
+      </c>
+      <c r="D63" s="47" t="str">
+        <f>CONCATENATE(ROUND(E40, 0), " (",ROUND(I40,0),")")</f>
+        <v>46 (11)</v>
+      </c>
+      <c r="E63" s="47" t="str">
+        <f>CONCATENATE(ROUND(F40, 0), " (",ROUND(J40,0),")")</f>
+        <v>48 (12)</v>
+      </c>
+      <c r="F63" s="47" t="str">
+        <f>CONCATENATE(ROUND(G40, 0), " (",ROUND(K40,0),")")</f>
+        <v>50 (14)</v>
+      </c>
+      <c r="G63" s="47" t="str">
+        <f>IF(H63&lt;0.0001,"&lt;0.0001",IF(H63&lt;0.001,"&lt;0.001",IF(H63&lt;0.01,"&lt;0.01",ROUND(H63,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H63" s="49">
+        <f>L40</f>
+        <v>3.72793123688149E-26</v>
+      </c>
+      <c r="I63" s="48"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="47" t="str">
+        <f>CONCATENATE(ROUND(D41, 0), " (",ROUND(H41,0),")")</f>
+        <v>7 (17)</v>
+      </c>
+      <c r="D64" s="47" t="str">
+        <f>CONCATENATE(ROUND(E41, 0), " (",ROUND(I41,0),")")</f>
+        <v>6 (14)</v>
+      </c>
+      <c r="E64" s="47" t="str">
+        <f>CONCATENATE(ROUND(F41, 0), " (",ROUND(J41,0),")")</f>
+        <v>6 (13)</v>
+      </c>
+      <c r="F64" s="47" t="str">
+        <f>CONCATENATE(ROUND(G41, 0), " (",ROUND(K41,0),")")</f>
+        <v>5 (12)</v>
+      </c>
+      <c r="G64" s="47">
+        <f>IF(H64&lt;0.0001,"&lt;0.0001",IF(H64&lt;0.001,"&lt;0.001",IF(H64&lt;0.01,"&lt;0.01",ROUND(H64,3))))</f>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H64" s="49">
+        <f>L41</f>
+        <v>5.7903000498847598E-2</v>
+      </c>
+      <c r="I64" s="48"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="10" t="str">
+        <f t="shared" ref="C65" si="4">CONCATENATE(ROUND(D42, 0), " (",ROUND(H42,0),")")</f>
+        <v>17 (11)</v>
+      </c>
+      <c r="D65" s="10" t="str">
+        <f t="shared" ref="D65" si="5">CONCATENATE(ROUND(E42, 0), " (",ROUND(I42,0),")")</f>
+        <v>14 (8)</v>
+      </c>
+      <c r="E65" s="10" t="str">
+        <f t="shared" ref="E65" si="6">CONCATENATE(ROUND(F42, 0), " (",ROUND(J42,0),")")</f>
+        <v>12 (8)</v>
+      </c>
+      <c r="F65" s="10" t="str">
+        <f t="shared" ref="F65" si="7">CONCATENATE(ROUND(G42, 0), " (",ROUND(K42,0),")")</f>
+        <v>11 (7)</v>
+      </c>
+      <c r="G65" s="10" t="str">
+        <f>IF(H65&lt;0.0001,"&lt;0.0001",IF(H65&lt;0.001,"&lt;0.001",IF(H65&lt;0.01,"&lt;0.01",ROUND(H65,3))))</f>
+        <v>&lt;0.0001</v>
+      </c>
+      <c r="H65" s="49">
+        <f>L42</f>
+        <v>3.7557936039960502E-36</v>
+      </c>
+      <c r="I65" s="48"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2693,7 +3294,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{07FC28DC-BEA2-49E7-857D-B5E552A93230}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{B8630206-E012-404C-8CB6-5FB7A7C01591}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2704,12 +3305,76 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D31:G31</xm:f>
-              <xm:sqref>N31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D32:G32</xm:f>
-              <xm:sqref>N32</xm:sqref>
+              <xm:f>Sheet1!D3:G3</xm:f>
+              <xm:sqref>N3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D4:G4</xm:f>
+              <xm:sqref>N4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D5:G5</xm:f>
+              <xm:sqref>N5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D6:G6</xm:f>
+              <xm:sqref>N6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D7:G7</xm:f>
+              <xm:sqref>N7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D8:G8</xm:f>
+              <xm:sqref>N8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D9:G9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D10:G10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D11:G11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D12:G12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D13:G13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D14:G14</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D15:G15</xm:f>
+              <xm:sqref>N15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D16:G16</xm:f>
+              <xm:sqref>N16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D17:G17</xm:f>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D18:G18</xm:f>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D19:G19</xm:f>
+              <xm:sqref>N19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D20:G20</xm:f>
+              <xm:sqref>N20</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -2776,20 +3441,20 @@
               <xm:sqref>N39</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
+              <xm:f>Sheet1!D41:G41</xm:f>
+              <xm:sqref>N41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
               <xm:f>Sheet1!D40:G40</xm:f>
               <xm:sqref>N40</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D41:G41</xm:f>
-              <xm:sqref>N41</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
               <xm:f>Sheet1!D42:G42</xm:f>
               <xm:sqref>N42</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{B8630206-E012-404C-8CB6-5FB7A7C01591}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{07FC28DC-BEA2-49E7-857D-B5E552A93230}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2800,76 +3465,12 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D3:G3</xm:f>
-              <xm:sqref>N3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D4:G4</xm:f>
-              <xm:sqref>N4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D5:G5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D6:G6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D7:G7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D8:G8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D9:G9</xm:f>
-              <xm:sqref>N9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D10:G10</xm:f>
-              <xm:sqref>N10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D11:G11</xm:f>
-              <xm:sqref>N11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D12:G12</xm:f>
-              <xm:sqref>N12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D13:G13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D14:G14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D15:G15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D16:G16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D17:G17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D18:G18</xm:f>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D19:G19</xm:f>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D20:G20</xm:f>
-              <xm:sqref>N20</xm:sqref>
+              <xm:f>Sheet1!D31:G31</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D32:G32</xm:f>
+              <xm:sqref>N32</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/eg_data/NHANES/PF/Waist2/Foods/Foods.xlsx
+++ b/eg_data/NHANES/PF/Waist2/Foods/Foods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist2\Foods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C0416B-0109-4DAB-8575-187599F29699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7351482B-B256-4F99-BA23-98A8AD19A46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28125" yWindow="-3165" windowWidth="22245" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="68">
   <si>
     <t>KCAL</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Alcohol</t>
-  </si>
-  <si>
-    <t>no. of drinks</t>
   </si>
   <si>
     <t>tsp.</t>
@@ -376,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,11 +471,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -762,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,46 +770,46 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -826,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
@@ -959,10 +951,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>31</v>
@@ -1004,7 +996,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1049,13 +1041,13 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -1089,7 +1081,7 @@
         <v>*</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="25"/>
     </row>
@@ -1555,7 +1547,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D18" s="35">
         <v>7.9189673913043501</v>
@@ -1604,7 +1596,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>5</v>
@@ -1653,13 +1645,13 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>37</v>
-      </c>
       <c r="C20" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="40">
         <v>16.7207820059783</v>
@@ -1705,49 +1697,49 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" t="s">
         <v>61</v>
-      </c>
-      <c r="L23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="H24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="M24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -1756,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>6</v>
@@ -1880,10 +1872,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
@@ -1922,7 +1914,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1964,13 +1956,13 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D30" s="19">
         <v>0</v>
@@ -2004,7 +1996,7 @@
         <v>*</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -2410,7 +2402,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -2456,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D41" s="19">
         <v>7.1735663273710504</v>
@@ -2492,13 +2484,13 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="20">
         <v>16.649647577247698</v>
@@ -2536,7 +2528,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="27"/>
       <c r="S44" s="24"/>
@@ -2551,9 +2543,8 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="27"/>
+        <v>59</v>
+      </c>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="24"/>
@@ -2578,30 +2569,29 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="E47" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="F47" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="50" t="s">
-        <v>68</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" s="48"/>
+        <v>62</v>
+      </c>
+      <c r="H47" t="s">
+        <v>62</v>
+      </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="S47" s="24"/>
@@ -2626,26 +2616,25 @@
         <v>0.2 (0.6)</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>CONCATENATE(ROUND(E25, 1), " (",ROUND(I25,1),")")</f>
+        <f t="shared" ref="C48:F49" si="4">CONCATENATE(ROUND(E25, 1), " (",ROUND(I25,1),")")</f>
         <v>0.7 (1.1)</v>
       </c>
       <c r="E48" s="3" t="str">
-        <f>CONCATENATE(ROUND(F25, 1), " (",ROUND(J25,1),")")</f>
+        <f t="shared" si="4"/>
         <v>1.1 (1.5)</v>
       </c>
       <c r="F48" s="3" t="str">
-        <f>CONCATENATE(ROUND(G25, 1), " (",ROUND(K25,1),")")</f>
+        <f t="shared" si="4"/>
         <v>1.4 (1.9)</v>
       </c>
-      <c r="G48" s="47" t="str">
-        <f>IF(H48&lt;0.0001,"&lt;0.0001",IF(H48&lt;0.001,"&lt;0.001",IF(H48&lt;0.01,"&lt;0.01",ROUND(H48,3))))</f>
+      <c r="G48" s="3" t="str">
+        <f t="shared" ref="G48:G65" si="5">IF(H48&lt;0.0001,"&lt;0.0001",IF(H48&lt;0.001,"&lt;0.001",IF(H48&lt;0.01,"&lt;0.01",ROUND(H48,3))))</f>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H48" s="49">
-        <f>L25</f>
+      <c r="H48" s="7">
+        <f t="shared" ref="H48:H65" si="6">L25</f>
         <v>1.0498513205627999E-121</v>
       </c>
-      <c r="I48" s="48"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="S48" s="24"/>
@@ -2666,30 +2655,29 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f>CONCATENATE(ROUND(D26, 1), " (",ROUND(H26,1),")")</f>
+        <f t="shared" si="4"/>
         <v>5.8 (3.4)</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>CONCATENATE(ROUND(E26, 1), " (",ROUND(I26,1),")")</f>
+        <f t="shared" si="4"/>
         <v>7 (3.5)</v>
       </c>
       <c r="E49" s="3" t="str">
-        <f>CONCATENATE(ROUND(F26, 1), " (",ROUND(J26,1),")")</f>
+        <f t="shared" si="4"/>
         <v>8.1 (3.7)</v>
       </c>
       <c r="F49" s="3" t="str">
-        <f>CONCATENATE(ROUND(G26, 1), " (",ROUND(K26,1),")")</f>
+        <f t="shared" si="4"/>
         <v>8.9 (4.3)</v>
       </c>
-      <c r="G49" s="47" t="str">
-        <f>IF(H49&lt;0.0001,"&lt;0.0001",IF(H49&lt;0.001,"&lt;0.001",IF(H49&lt;0.01,"&lt;0.01",ROUND(H49,3))))</f>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H49" s="49">
-        <f>L26</f>
+      <c r="H49" s="7">
+        <f t="shared" si="6"/>
         <v>1.6635055820584701E-65</v>
       </c>
-      <c r="I49" s="48"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="S49" s="24"/>
@@ -2710,29 +2698,28 @@
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>CONCATENATE(ROUND(E27, 1), " (",ROUND(I27,1),")")</f>
+        <f t="shared" ref="D50:F52" si="7">CONCATENATE(ROUND(E27, 1), " (",ROUND(I27,1),")")</f>
         <v>11 (16.2)</v>
       </c>
       <c r="E50" s="3" t="str">
-        <f>CONCATENATE(ROUND(F27, 1), " (",ROUND(J27,1),")")</f>
+        <f t="shared" si="7"/>
         <v>15.5 (19)</v>
       </c>
       <c r="F50" s="3" t="str">
-        <f>CONCATENATE(ROUND(G27, 1), " (",ROUND(K27,1),")")</f>
+        <f t="shared" si="7"/>
         <v>16.9 (20.6)</v>
       </c>
-      <c r="G50" s="47" t="str">
-        <f>IF(H50&lt;0.0001,"&lt;0.0001",IF(H50&lt;0.001,"&lt;0.001",IF(H50&lt;0.01,"&lt;0.01",ROUND(H50,3))))</f>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H50" s="49">
-        <f>L27</f>
+      <c r="H50" s="7">
+        <f t="shared" si="6"/>
         <v>4.8632115582192202E-105</v>
       </c>
-      <c r="I50" s="48"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="S50" s="24"/>
@@ -2747,7 +2734,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>31</v>
@@ -2757,26 +2744,25 @@
         <v>0.8 (0.9)</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>CONCATENATE(ROUND(E28, 1), " (",ROUND(I28,1),")")</f>
+        <f t="shared" si="7"/>
         <v>1 (1)</v>
       </c>
       <c r="E51" s="3" t="str">
-        <f>CONCATENATE(ROUND(F28, 1), " (",ROUND(J28,1),")")</f>
+        <f t="shared" si="7"/>
         <v>1.3 (1.2)</v>
       </c>
       <c r="F51" s="3" t="str">
-        <f>CONCATENATE(ROUND(G28, 1), " (",ROUND(K28,1),")")</f>
+        <f t="shared" si="7"/>
         <v>1.4 (1.4)</v>
       </c>
-      <c r="G51" s="47" t="str">
-        <f>IF(H51&lt;0.0001,"&lt;0.0001",IF(H51&lt;0.001,"&lt;0.001",IF(H51&lt;0.01,"&lt;0.01",ROUND(H51,3))))</f>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H51" s="49">
-        <f>L28</f>
+      <c r="H51" s="7">
+        <f t="shared" si="6"/>
         <v>1.03578144240093E-29</v>
       </c>
-      <c r="I51" s="48"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="S51" s="24"/>
@@ -2791,7 +2777,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>31</v>
@@ -2801,26 +2787,25 @@
         <v>1.4 (0.9)</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>CONCATENATE(ROUND(E29, 1), " (",ROUND(I29,1),")")</f>
+        <f t="shared" si="7"/>
         <v>1.5 (1)</v>
       </c>
       <c r="E52" s="3" t="str">
-        <f>CONCATENATE(ROUND(F29, 1), " (",ROUND(J29,1),")")</f>
+        <f t="shared" si="7"/>
         <v>1.8 (1)</v>
       </c>
       <c r="F52" s="3" t="str">
-        <f>CONCATENATE(ROUND(G29, 1), " (",ROUND(K29,1),")")</f>
+        <f t="shared" si="7"/>
         <v>1.7 (1)</v>
       </c>
-      <c r="G52" s="47" t="str">
-        <f>IF(H52&lt;0.0001,"&lt;0.0001",IF(H52&lt;0.001,"&lt;0.001",IF(H52&lt;0.01,"&lt;0.01",ROUND(H52,3))))</f>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H52" s="49">
-        <f>L29</f>
+      <c r="H52" s="7">
+        <f t="shared" si="6"/>
         <v>1.5013294810008501E-16</v>
       </c>
-      <c r="I52" s="48"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
       <c r="U52" s="24"/>
@@ -2833,37 +2818,37 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C53" s="3" t="str">
-        <f>CONCATENATE(ROUND(D30, 0), " (",ROUND(H30,0),")")</f>
+        <f t="shared" ref="C53:C64" si="8">CONCATENATE(ROUND(D30, 0), " (",ROUND(H30,0),")")</f>
         <v>0 (0)</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>CONCATENATE(ROUND(E30, 0), " (",ROUND(I30,0),")")</f>
+        <f t="shared" ref="D53:D64" si="9">CONCATENATE(ROUND(E30, 0), " (",ROUND(I30,0),")")</f>
         <v>50 (57)</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f>CONCATENATE(ROUND(F30, 0), " (",ROUND(J30,0),")")</f>
+        <f t="shared" ref="E53:E64" si="10">CONCATENATE(ROUND(F30, 0), " (",ROUND(J30,0),")")</f>
         <v>105 (102)</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f>CONCATENATE(ROUND(G30, 0), " (",ROUND(K30,0),")")</f>
+        <f t="shared" ref="F53:F64" si="11">CONCATENATE(ROUND(G30, 0), " (",ROUND(K30,0),")")</f>
         <v>129 (107)</v>
       </c>
-      <c r="G53" s="47" t="str">
-        <f>IF(H53&lt;0.0001,"&lt;0.0001",IF(H53&lt;0.001,"&lt;0.001",IF(H53&lt;0.01,"&lt;0.01",ROUND(H53,3))))</f>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H53" s="49">
-        <f>L30</f>
+      <c r="H53" s="7">
+        <f t="shared" si="6"/>
         <v>9.4443410000000005E-68</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -2885,30 +2870,29 @@
         <v>29</v>
       </c>
       <c r="C54" s="3" t="str">
-        <f>CONCATENATE(ROUND(D31, 0), " (",ROUND(H31,0),")")</f>
+        <f t="shared" si="8"/>
         <v>14 (5)</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>CONCATENATE(ROUND(E31, 0), " (",ROUND(I31,0),")")</f>
+        <f t="shared" si="9"/>
         <v>16 (5)</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f>CONCATENATE(ROUND(F31, 0), " (",ROUND(J31,0),")")</f>
+        <f t="shared" si="10"/>
         <v>18 (5)</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f>CONCATENATE(ROUND(G31, 0), " (",ROUND(K31,0),")")</f>
+        <f t="shared" si="11"/>
         <v>19 (5)</v>
       </c>
-      <c r="G54" s="47" t="str">
-        <f>IF(H54&lt;0.0001,"&lt;0.0001",IF(H54&lt;0.001,"&lt;0.001",IF(H54&lt;0.01,"&lt;0.01",ROUND(H54,3))))</f>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H54" s="49">
-        <f>L31</f>
+      <c r="H54" s="7">
+        <f t="shared" si="6"/>
         <v>4.8072698541393398E-98</v>
       </c>
-      <c r="I54" s="48"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
     </row>
@@ -2920,30 +2904,29 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="str">
-        <f>CONCATENATE(ROUND(D32, 0), " (",ROUND(H32,0),")")</f>
+        <f t="shared" si="8"/>
         <v>1954 (720)</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>CONCATENATE(ROUND(E32, 0), " (",ROUND(I32,0),")")</f>
+        <f t="shared" si="9"/>
         <v>2038 (702)</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f>CONCATENATE(ROUND(F32, 0), " (",ROUND(J32,0),")")</f>
+        <f t="shared" si="10"/>
         <v>2109 (684)</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f>CONCATENATE(ROUND(G32, 0), " (",ROUND(K32,0),")")</f>
+        <f t="shared" si="11"/>
         <v>2225 (743)</v>
       </c>
-      <c r="G55" s="47" t="str">
-        <f>IF(H55&lt;0.0001,"&lt;0.0001",IF(H55&lt;0.001,"&lt;0.001",IF(H55&lt;0.01,"&lt;0.01",ROUND(H55,3))))</f>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H55" s="49">
-        <f>L32</f>
+      <c r="H55" s="7">
+        <f t="shared" si="6"/>
         <v>4.0303682251243398E-11</v>
       </c>
-      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2953,30 +2936,29 @@
         <v>5</v>
       </c>
       <c r="C56" s="9" t="str">
-        <f>CONCATENATE(ROUND(D33, 0), " (",ROUND(H33,0),")")</f>
+        <f t="shared" si="8"/>
         <v>241 (45)</v>
       </c>
       <c r="D56" s="9" t="str">
-        <f>CONCATENATE(ROUND(E33, 0), " (",ROUND(I33,0),")")</f>
+        <f t="shared" si="9"/>
         <v>238 (42)</v>
       </c>
       <c r="E56" s="9" t="str">
-        <f>CONCATENATE(ROUND(F33, 0), " (",ROUND(J33,0),")")</f>
+        <f t="shared" si="10"/>
         <v>240 (46)</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f>CONCATENATE(ROUND(G33, 0), " (",ROUND(K33,0),")")</f>
+        <f t="shared" si="11"/>
         <v>238 (45)</v>
       </c>
       <c r="G56" s="9">
-        <f>IF(H56&lt;0.0001,"&lt;0.0001",IF(H56&lt;0.001,"&lt;0.001",IF(H56&lt;0.01,"&lt;0.01",ROUND(H56,3))))</f>
+        <f t="shared" si="5"/>
         <v>0.30299999999999999</v>
       </c>
-      <c r="H56" s="49">
-        <f>L33</f>
+      <c r="H56" s="7">
+        <f t="shared" si="6"/>
         <v>0.30264775891721102</v>
       </c>
-      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2985,31 +2967,30 @@
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="47" t="str">
-        <f>CONCATENATE(ROUND(D34, 0), " (",ROUND(H34,0),")")</f>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>79 (23)</v>
       </c>
-      <c r="D57" s="47" t="str">
-        <f>CONCATENATE(ROUND(E34, 0), " (",ROUND(I34,0),")")</f>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>82 (21)</v>
       </c>
-      <c r="E57" s="47" t="str">
-        <f>CONCATENATE(ROUND(F34, 0), " (",ROUND(J34,0),")")</f>
+      <c r="E57" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>82 (20)</v>
       </c>
-      <c r="F57" s="47" t="str">
-        <f>CONCATENATE(ROUND(G34, 0), " (",ROUND(K34,0),")")</f>
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>82 (20)</v>
       </c>
-      <c r="G57" s="47" t="str">
-        <f>IF(H57&lt;0.0001,"&lt;0.0001",IF(H57&lt;0.001,"&lt;0.001",IF(H57&lt;0.01,"&lt;0.01",ROUND(H57,3))))</f>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.01</v>
       </c>
-      <c r="H57" s="49">
-        <f>L34</f>
+      <c r="H57" s="7">
+        <f t="shared" si="6"/>
         <v>1.9450024880622199E-3</v>
       </c>
-      <c r="I57" s="48"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -3018,31 +2999,30 @@
       <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="47" t="str">
-        <f>CONCATENATE(ROUND(D35, 0), " (",ROUND(H35,0),")")</f>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>15 (6)</v>
       </c>
-      <c r="D58" s="47" t="str">
-        <f>CONCATENATE(ROUND(E35, 0), " (",ROUND(I35,0),")")</f>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>18 (7)</v>
       </c>
-      <c r="E58" s="47" t="str">
-        <f>CONCATENATE(ROUND(F35, 0), " (",ROUND(J35,0),")")</f>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>22 (9)</v>
       </c>
-      <c r="F58" s="47" t="str">
-        <f>CONCATENATE(ROUND(G35, 0), " (",ROUND(K35,0),")")</f>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>24 (9)</v>
       </c>
-      <c r="G58" s="47" t="str">
-        <f>IF(H58&lt;0.0001,"&lt;0.0001",IF(H58&lt;0.001,"&lt;0.001",IF(H58&lt;0.01,"&lt;0.01",ROUND(H58,3))))</f>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H58" s="49">
-        <f>L35</f>
+      <c r="H58" s="7">
+        <f t="shared" si="6"/>
         <v>6.2283567032546602E-164</v>
       </c>
-      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -3051,31 +3031,30 @@
       <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="47" t="str">
-        <f>CONCATENATE(ROUND(D36, 0), " (",ROUND(H36,0),")")</f>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>77 (16)</v>
       </c>
-      <c r="D59" s="47" t="str">
-        <f>CONCATENATE(ROUND(E36, 0), " (",ROUND(I36,0),")")</f>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>79 (16)</v>
       </c>
-      <c r="E59" s="47" t="str">
-        <f>CONCATENATE(ROUND(F36, 0), " (",ROUND(J36,0),")")</f>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>78 (17)</v>
       </c>
-      <c r="F59" s="47" t="str">
-        <f>CONCATENATE(ROUND(G36, 0), " (",ROUND(K36,0),")")</f>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>81 (18)</v>
       </c>
-      <c r="G59" s="47" t="str">
-        <f>IF(H59&lt;0.0001,"&lt;0.0001",IF(H59&lt;0.001,"&lt;0.001",IF(H59&lt;0.01,"&lt;0.01",ROUND(H59,3))))</f>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H59" s="49">
-        <f>L36</f>
+      <c r="H59" s="7">
+        <f t="shared" si="6"/>
         <v>6.6575160657740697E-5</v>
       </c>
-      <c r="I59" s="48"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -3084,31 +3063,30 @@
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="47" t="str">
-        <f>CONCATENATE(ROUND(D37, 0), " (",ROUND(H37,0),")")</f>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>26 (7)</v>
       </c>
-      <c r="D60" s="47" t="str">
-        <f>CONCATENATE(ROUND(E37, 0), " (",ROUND(I37,0),")")</f>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>25 (7)</v>
       </c>
-      <c r="E60" s="47" t="str">
-        <f>CONCATENATE(ROUND(F37, 0), " (",ROUND(J37,0),")")</f>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>23 (7)</v>
       </c>
-      <c r="F60" s="47" t="str">
-        <f>CONCATENATE(ROUND(G37, 0), " (",ROUND(K37,0),")")</f>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>23 (7)</v>
       </c>
-      <c r="G60" s="47" t="str">
-        <f>IF(H60&lt;0.0001,"&lt;0.0001",IF(H60&lt;0.001,"&lt;0.001",IF(H60&lt;0.01,"&lt;0.01",ROUND(H60,3))))</f>
+      <c r="G60" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H60" s="49">
-        <f>L37</f>
+      <c r="H60" s="7">
+        <f t="shared" si="6"/>
         <v>1.2888568912707299E-12</v>
       </c>
-      <c r="I60" s="48"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -3117,31 +3095,30 @@
       <c r="B61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="47" t="str">
-        <f>CONCATENATE(ROUND(D38, 0), " (",ROUND(H38,0),")")</f>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>26 (7)</v>
       </c>
-      <c r="D61" s="47" t="str">
-        <f>CONCATENATE(ROUND(E38, 0), " (",ROUND(I38,0),")")</f>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>28 (7)</v>
       </c>
-      <c r="E61" s="47" t="str">
-        <f>CONCATENATE(ROUND(F38, 0), " (",ROUND(J38,0),")")</f>
+      <c r="E61" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>28 (8)</v>
       </c>
-      <c r="F61" s="47" t="str">
-        <f>CONCATENATE(ROUND(G38, 0), " (",ROUND(K38,0),")")</f>
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>30 (9)</v>
       </c>
-      <c r="G61" s="47" t="str">
-        <f>IF(H61&lt;0.0001,"&lt;0.0001",IF(H61&lt;0.001,"&lt;0.001",IF(H61&lt;0.01,"&lt;0.01",ROUND(H61,3))))</f>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H61" s="49">
-        <f>L38</f>
+      <c r="H61" s="7">
+        <f t="shared" si="6"/>
         <v>2.1751664148863601E-20</v>
       </c>
-      <c r="I61" s="48"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3150,31 +3127,30 @@
       <c r="B62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="47" t="str">
-        <f>CONCATENATE(ROUND(D39, 0), " (",ROUND(H39,0),")")</f>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>17 (6)</v>
       </c>
-      <c r="D62" s="47" t="str">
-        <f>CONCATENATE(ROUND(E39, 0), " (",ROUND(I39,0),")")</f>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>18 (6)</v>
       </c>
-      <c r="E62" s="47" t="str">
-        <f>CONCATENATE(ROUND(F39, 0), " (",ROUND(J39,0),")")</f>
+      <c r="E62" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>19 (6)</v>
       </c>
-      <c r="F62" s="47" t="str">
-        <f>CONCATENATE(ROUND(G39, 0), " (",ROUND(K39,0),")")</f>
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>20 (7)</v>
       </c>
-      <c r="G62" s="47" t="str">
-        <f>IF(H62&lt;0.0001,"&lt;0.0001",IF(H62&lt;0.001,"&lt;0.001",IF(H62&lt;0.01,"&lt;0.01",ROUND(H62,3))))</f>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H62" s="49">
-        <f>L39</f>
+      <c r="H62" s="7">
+        <f t="shared" si="6"/>
         <v>1.6510316802959001E-19</v>
       </c>
-      <c r="I62" s="48"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -3183,109 +3159,94 @@
       <c r="B63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="47" t="str">
-        <f>CONCATENATE(ROUND(D40, 0), " (",ROUND(H40,0),")")</f>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>44 (11)</v>
       </c>
-      <c r="D63" s="47" t="str">
-        <f>CONCATENATE(ROUND(E40, 0), " (",ROUND(I40,0),")")</f>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>46 (11)</v>
       </c>
-      <c r="E63" s="47" t="str">
-        <f>CONCATENATE(ROUND(F40, 0), " (",ROUND(J40,0),")")</f>
+      <c r="E63" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>48 (12)</v>
       </c>
-      <c r="F63" s="47" t="str">
-        <f>CONCATENATE(ROUND(G40, 0), " (",ROUND(K40,0),")")</f>
+      <c r="F63" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>50 (14)</v>
       </c>
-      <c r="G63" s="47" t="str">
-        <f>IF(H63&lt;0.0001,"&lt;0.0001",IF(H63&lt;0.001,"&lt;0.001",IF(H63&lt;0.01,"&lt;0.01",ROUND(H63,3))))</f>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H63" s="49">
-        <f>L40</f>
+      <c r="H63" s="7">
+        <f t="shared" si="6"/>
         <v>3.72793123688149E-26</v>
       </c>
-      <c r="I63" s="48"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>7 (17)</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>6 (14)</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>6 (13)</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>5 (12)</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="6"/>
+        <v>5.7903000498847598E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="47" t="str">
-        <f>CONCATENATE(ROUND(D41, 0), " (",ROUND(H41,0),")")</f>
-        <v>7 (17)</v>
-      </c>
-      <c r="D64" s="47" t="str">
-        <f>CONCATENATE(ROUND(E41, 0), " (",ROUND(I41,0),")")</f>
-        <v>6 (14)</v>
-      </c>
-      <c r="E64" s="47" t="str">
-        <f>CONCATENATE(ROUND(F41, 0), " (",ROUND(J41,0),")")</f>
-        <v>6 (13)</v>
-      </c>
-      <c r="F64" s="47" t="str">
-        <f>CONCATENATE(ROUND(G41, 0), " (",ROUND(K41,0),")")</f>
-        <v>5 (12)</v>
-      </c>
-      <c r="G64" s="47">
-        <f>IF(H64&lt;0.0001,"&lt;0.0001",IF(H64&lt;0.001,"&lt;0.001",IF(H64&lt;0.01,"&lt;0.01",ROUND(H64,3))))</f>
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H64" s="49">
-        <f>L41</f>
-        <v>5.7903000498847598E-2</v>
-      </c>
-      <c r="I64" s="48"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="C65" s="10" t="str">
-        <f t="shared" ref="C65" si="4">CONCATENATE(ROUND(D42, 0), " (",ROUND(H42,0),")")</f>
+        <f t="shared" ref="C65" si="12">CONCATENATE(ROUND(D42, 0), " (",ROUND(H42,0),")")</f>
         <v>17 (11)</v>
       </c>
       <c r="D65" s="10" t="str">
-        <f t="shared" ref="D65" si="5">CONCATENATE(ROUND(E42, 0), " (",ROUND(I42,0),")")</f>
+        <f t="shared" ref="D65" si="13">CONCATENATE(ROUND(E42, 0), " (",ROUND(I42,0),")")</f>
         <v>14 (8)</v>
       </c>
       <c r="E65" s="10" t="str">
-        <f t="shared" ref="E65" si="6">CONCATENATE(ROUND(F42, 0), " (",ROUND(J42,0),")")</f>
+        <f t="shared" ref="E65" si="14">CONCATENATE(ROUND(F42, 0), " (",ROUND(J42,0),")")</f>
         <v>12 (8)</v>
       </c>
       <c r="F65" s="10" t="str">
-        <f t="shared" ref="F65" si="7">CONCATENATE(ROUND(G42, 0), " (",ROUND(K42,0),")")</f>
+        <f t="shared" ref="F65" si="15">CONCATENATE(ROUND(G42, 0), " (",ROUND(K42,0),")")</f>
         <v>11 (7)</v>
       </c>
       <c r="G65" s="10" t="str">
-        <f>IF(H65&lt;0.0001,"&lt;0.0001",IF(H65&lt;0.001,"&lt;0.001",IF(H65&lt;0.01,"&lt;0.01",ROUND(H65,3))))</f>
+        <f t="shared" si="5"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H65" s="49">
-        <f>L42</f>
+      <c r="H65" s="7">
+        <f t="shared" si="6"/>
         <v>3.7557936039960502E-36</v>
       </c>
-      <c r="I65" s="48"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3294,7 +3255,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{B8630206-E012-404C-8CB6-5FB7A7C01591}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{07FC28DC-BEA2-49E7-857D-B5E552A93230}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3305,76 +3266,12 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D3:G3</xm:f>
-              <xm:sqref>N3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D4:G4</xm:f>
-              <xm:sqref>N4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D5:G5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D6:G6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D7:G7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D8:G8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D9:G9</xm:f>
-              <xm:sqref>N9</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D10:G10</xm:f>
-              <xm:sqref>N10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D11:G11</xm:f>
-              <xm:sqref>N11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D12:G12</xm:f>
-              <xm:sqref>N12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D13:G13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D14:G14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D15:G15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D16:G16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D17:G17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D18:G18</xm:f>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D19:G19</xm:f>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D20:G20</xm:f>
-              <xm:sqref>N20</xm:sqref>
+              <xm:f>Sheet1!D31:G31</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D32:G32</xm:f>
+              <xm:sqref>N32</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -3454,7 +3351,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{07FC28DC-BEA2-49E7-857D-B5E552A93230}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{B8630206-E012-404C-8CB6-5FB7A7C01591}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -3465,12 +3362,76 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D31:G31</xm:f>
-              <xm:sqref>N31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet1!D32:G32</xm:f>
-              <xm:sqref>N32</xm:sqref>
+              <xm:f>Sheet1!D3:G3</xm:f>
+              <xm:sqref>N3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D4:G4</xm:f>
+              <xm:sqref>N4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D5:G5</xm:f>
+              <xm:sqref>N5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D6:G6</xm:f>
+              <xm:sqref>N6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D7:G7</xm:f>
+              <xm:sqref>N7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D8:G8</xm:f>
+              <xm:sqref>N8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D9:G9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D10:G10</xm:f>
+              <xm:sqref>N10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D11:G11</xm:f>
+              <xm:sqref>N11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D12:G12</xm:f>
+              <xm:sqref>N12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D13:G13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D14:G14</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D15:G15</xm:f>
+              <xm:sqref>N15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D16:G16</xm:f>
+              <xm:sqref>N16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D17:G17</xm:f>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D18:G18</xm:f>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D19:G19</xm:f>
+              <xm:sqref>N19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet1!D20:G20</xm:f>
+              <xm:sqref>N20</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/eg_data/NHANES/PF/Waist2/Foods/Foods.xlsx
+++ b/eg_data/NHANES/PF/Waist2/Foods/Foods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadoh\OneDrive\Documents\GitHub\DietR\eg_data\NHANES\PF\Waist2\Foods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD28FFB-F757-4BB7-B5A9-B78F909E5706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457F7739-4E1C-4DD7-9AC8-C2BACF1787AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31515" yWindow="-3240" windowWidth="22125" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,7 +460,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -570,10 +569,6 @@
     <xf numFmtId="11" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -859,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,8 +866,8 @@
     <col min="4" max="11" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:28" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1032,28 +1027,28 @@
       <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>0.184495289719626</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>0.73829558190045297</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>1.1482493138888901</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>1.40063564845938</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>0.58908172666468706</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>1.11183191592511</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>1.50038648333006</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>1.87324564909391</v>
       </c>
       <c r="L5" s="14">
@@ -1108,28 +1103,28 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>5.7980404472237499</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>6.9938482122171903</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>8.2212856083333303</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>8.7207081638655506</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>3.3780720142898302</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>3.4417984366370802</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>3.84105371084082</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>4.2661259915711902</v>
       </c>
       <c r="L6" s="7">
@@ -1174,47 +1169,47 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="62">
         <v>11.091841890596299</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="62">
         <v>14.9678362330082</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="62">
         <v>17.414672550636201</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="63">
         <v>16.248504388892702</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="63">
         <v>18.796758178043</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="63">
         <v>20.832798347228302</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="64">
         <v>3.7066896590674199E-9</v>
       </c>
-      <c r="M7" s="61" t="str">
+      <c r="M7" s="60" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="N7" s="60"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="18" t="s">
         <v>56</v>
       </c>
@@ -1262,28 +1257,28 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>0.80098101099505203</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>1.0091932144796401</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>1.2168124333333299</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>1.4238459789916</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>0.94331345274928702</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>0.99131309420298697</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>1.18012628577629</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>1.37057559052184</v>
       </c>
       <c r="L8" s="7">
@@ -1337,28 +1332,28 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>1.37528922979659</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>1.5032374122171901</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>1.7774401875000001</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>1.71545977030812</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>0.93416511212337205</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>0.99642612018883503</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>1.03460323679939</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>1.0071458680084999</v>
       </c>
       <c r="L9" s="7">
@@ -1403,47 +1398,47 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="65">
         <v>0</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="65">
         <v>49.298280542986397</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="65">
         <v>104.115472222222</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="65">
         <v>130.84037815126001</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="66">
         <v>0</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="66">
         <v>56.830445426593201</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="66">
         <v>102.15184090935</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="66">
         <v>106.9441204151</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="67">
         <v>6.0172149583387099E-69</v>
       </c>
-      <c r="M10" s="61" t="str">
+      <c r="M10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="N10" s="60"/>
+      <c r="N10" s="59"/>
       <c r="O10" s="18" t="s">
         <v>56</v>
       </c>
@@ -1633,7 +1628,7 @@
       <c r="K13" s="5">
         <v>45.328998171445598</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>0.47590699183274598</v>
       </c>
       <c r="M13" s="3" t="str">
@@ -2260,7 +2255,7 @@
       <c r="K21" s="5">
         <v>11.790992876644401</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="20">
         <v>9.4679510999418903E-2</v>
       </c>
       <c r="M21" s="3" t="str">
@@ -2342,7 +2337,7 @@
         <v>9.4293658880656994E-37</v>
       </c>
       <c r="M22" s="10" t="str">
-        <f t="shared" ref="M22:M33" si="1">IF(L22&lt;0.01,"*","")</f>
+        <f t="shared" ref="M22" si="1">IF(L22&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
       <c r="N22" s="6"/>
@@ -2387,51 +2382,24 @@
       <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2440,16 +2408,16 @@
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="73" t="s">
+      <c r="F27" s="70" t="s">
         <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2460,21 +2428,12 @@
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3" t="str">
@@ -2503,15 +2462,6 @@
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2546,15 +2496,6 @@
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2591,15 +2532,6 @@
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2634,15 +2566,6 @@
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2675,17 +2598,8 @@
         <f t="shared" si="6"/>
         <v>2.6938347654892101E-16</v>
       </c>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2721,17 +2635,8 @@
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2765,7 +2670,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2702,7 @@
         <v>1.4181386548275199E-9</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -2829,7 +2734,7 @@
         <v>0.47590699183274598</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -2861,7 +2766,7 @@
         <v>9.07493367925449E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2798,7 @@
         <v>3.8552331596019998E-165</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2925,7 +2830,7 @@
         <v>1.3021139263205499E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2957,7 +2862,7 @@
         <v>1.3663425376805699E-13</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -2989,7 +2894,7 @@
         <v>1.1770583033644901E-18</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +2926,7 @@
         <v>1.2163653008911501E-18</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3053,7 +2958,7 @@
         <v>2.8586846978891901E-24</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -3085,7 +2990,7 @@
         <v>9.4679510999418903E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
@@ -3117,2487 +3022,2487 @@
         <v>9.4293658880656994E-37</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+    <row r="47" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+    <row r="49" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="30" t="s">
+      <c r="G49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I49" s="29" t="s">
+      <c r="I49" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K49" s="29" t="s">
+      <c r="K49" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M49" s="31" t="s">
+      <c r="M49" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="29"/>
-    </row>
-    <row r="50" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="33">
         <v>0.18295094945652199</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="33">
         <v>0.73944302378815097</v>
       </c>
-      <c r="F50" s="34">
+      <c r="F50" s="33">
         <v>1.1368618601108</v>
       </c>
-      <c r="G50" s="34">
+      <c r="G50" s="33">
         <v>1.4061646759002799</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="34">
         <v>0.58621274902950804</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="34">
         <v>1.1143929552431999</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J50" s="34">
         <v>1.4592994855074</v>
       </c>
-      <c r="K50" s="35">
+      <c r="K50" s="34">
         <v>1.89958794616503</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="35">
         <v>1.0498513205627999E-121</v>
       </c>
-      <c r="M50" s="33" t="str">
+      <c r="M50" s="32" t="str">
         <f>IF(L50&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
-      <c r="N50" s="32"/>
-      <c r="P50" s="37"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-    </row>
-    <row r="51" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="N50" s="31"/>
+      <c r="P50" s="36"/>
+      <c r="Z50" s="37"/>
+      <c r="AA50" s="37"/>
+    </row>
+    <row r="51" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="39">
         <v>5.8002972948369598</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="39">
         <v>7.0372894268402204</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="39">
         <v>8.0596675844875296</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="39">
         <v>8.9077567285318597</v>
       </c>
-      <c r="H51" s="41">
+      <c r="H51" s="40">
         <v>3.3871550342967902</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="40">
         <v>3.5436256120641101</v>
       </c>
-      <c r="J51" s="41">
+      <c r="J51" s="40">
         <v>3.7407350231899601</v>
       </c>
-      <c r="K51" s="41">
+      <c r="K51" s="40">
         <v>4.3471158405075601</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="37">
         <v>1.6635055820584701E-65</v>
       </c>
-      <c r="M51" s="39" t="str">
+      <c r="M51" s="38" t="str">
         <f t="shared" ref="M51:M55" si="11">IF(L51&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
-      <c r="P51" s="37"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
-    </row>
-    <row r="52" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="P51" s="36"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+    </row>
+    <row r="52" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="39">
         <v>11.0492621635936</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="39">
         <v>15.4541793938045</v>
       </c>
-      <c r="G52" s="40">
+      <c r="G52" s="39">
         <v>16.887813961647598</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52" s="40">
         <v>16.2121941166866</v>
       </c>
-      <c r="J52" s="41">
+      <c r="J52" s="40">
         <v>19.0118043785385</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="40">
         <v>20.636122716293102</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="37">
         <v>4.8632115582192202E-105</v>
       </c>
-      <c r="M52" s="39" t="str">
+      <c r="M52" s="38" t="str">
         <f t="shared" si="11"/>
         <v>*</v>
       </c>
-      <c r="P52" s="37"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
-    </row>
-    <row r="53" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="P52" s="36"/>
+      <c r="Z52" s="37"/>
+      <c r="AA52" s="37"/>
+    </row>
+    <row r="53" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="39">
         <v>0.80476297934782604</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="39">
         <v>1.0180605439856401</v>
       </c>
-      <c r="F53" s="40">
+      <c r="F53" s="39">
         <v>1.25080382963989</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="39">
         <v>1.4129053822714699</v>
       </c>
-      <c r="H53" s="41">
+      <c r="H53" s="40">
         <v>0.94377771426720303</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53" s="40">
         <v>1.0074734428616301</v>
       </c>
-      <c r="J53" s="41">
+      <c r="J53" s="40">
         <v>1.22448903832413</v>
       </c>
-      <c r="K53" s="41">
+      <c r="K53" s="40">
         <v>1.3586364085246001</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="37">
         <v>1.03578144240093E-29</v>
       </c>
-      <c r="M53" s="39" t="str">
+      <c r="M53" s="38" t="str">
         <f t="shared" si="11"/>
         <v>*</v>
       </c>
-      <c r="P53" s="37"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-    </row>
-    <row r="54" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="P53" s="36"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+    </row>
+    <row r="54" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="39">
         <v>1.3737441263587</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="39">
         <v>1.51076845152603</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F54" s="39">
         <v>1.7714781218836599</v>
       </c>
-      <c r="G54" s="40">
+      <c r="G54" s="39">
         <v>1.72295080470914</v>
       </c>
-      <c r="H54" s="41">
+      <c r="H54" s="40">
         <v>0.93428129668897797</v>
       </c>
-      <c r="I54" s="41">
+      <c r="I54" s="40">
         <v>1.0057319753223299</v>
       </c>
-      <c r="J54" s="41">
+      <c r="J54" s="40">
         <v>0.99400571594227705</v>
       </c>
-      <c r="K54" s="41">
+      <c r="K54" s="40">
         <v>1.0456873735604399</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54" s="37">
         <v>1.5013294810008501E-16</v>
       </c>
-      <c r="M54" s="39" t="str">
+      <c r="M54" s="38" t="str">
         <f t="shared" si="11"/>
         <v>*</v>
       </c>
-      <c r="P54" s="37"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
-    </row>
-    <row r="55" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="P54" s="36"/>
+      <c r="Z54" s="37"/>
+      <c r="AA54" s="37"/>
+    </row>
+    <row r="55" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="42">
+      <c r="D55" s="41">
         <v>0</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="41">
         <v>49.630228904847399</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55" s="41">
         <v>105.32069252077601</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="41">
         <v>129.239390581717</v>
       </c>
-      <c r="H55" s="43">
+      <c r="H55" s="42">
         <v>0</v>
       </c>
-      <c r="I55" s="43">
+      <c r="I55" s="42">
         <v>57.044120088906197</v>
       </c>
-      <c r="J55" s="43">
+      <c r="J55" s="42">
         <v>102.10640904804001</v>
       </c>
-      <c r="K55" s="43">
+      <c r="K55" s="42">
         <v>106.97487550258801</v>
       </c>
-      <c r="L55" s="38">
+      <c r="L55" s="37">
         <v>9.4443410000000005E-68</v>
       </c>
-      <c r="M55" s="39" t="str">
+      <c r="M55" s="38" t="str">
         <f t="shared" si="11"/>
         <v>*</v>
       </c>
-      <c r="O55" s="28" t="s">
+      <c r="O55" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="P55" s="37"/>
-    </row>
-    <row r="56" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="P55" s="36"/>
+    </row>
+    <row r="56" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="41">
         <v>13.8524456521739</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="41">
         <v>15.8936265709156</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="41">
         <v>18.132963988919698</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="41">
         <v>18.608033240997202</v>
       </c>
-      <c r="H56" s="43">
+      <c r="H56" s="42">
         <v>4.6365564580015199</v>
       </c>
-      <c r="I56" s="43">
+      <c r="I56" s="42">
         <v>4.8096418536825603</v>
       </c>
-      <c r="J56" s="43">
+      <c r="J56" s="42">
         <v>5.0926465856096703</v>
       </c>
-      <c r="K56" s="43">
+      <c r="K56" s="42">
         <v>5.1753386103930703</v>
       </c>
-      <c r="L56" s="38">
+      <c r="L56" s="37">
         <v>4.8072698541393398E-98</v>
       </c>
-      <c r="M56" s="39" t="str">
+      <c r="M56" s="38" t="str">
         <f t="shared" ref="M56:M67" si="12">IF(L56&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
-      <c r="P56" s="37"/>
-      <c r="Z56" s="38"/>
-      <c r="AA56" s="38"/>
-    </row>
-    <row r="57" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="P56" s="36"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+    </row>
+    <row r="57" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="42">
+      <c r="D57" s="41">
         <v>1954.17445652174</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="41">
         <v>2037.63779174147</v>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="41">
         <v>2108.7202216066498</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="41">
         <v>2225.1080332410002</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="42">
         <v>719.81671225279399</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I57" s="42">
         <v>702.42858912509803</v>
       </c>
-      <c r="J57" s="43">
+      <c r="J57" s="42">
         <v>684.00986985728002</v>
       </c>
-      <c r="K57" s="43">
+      <c r="K57" s="42">
         <v>742.97397944324598</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57" s="37">
         <v>4.0303682251243398E-11</v>
       </c>
-      <c r="M57" s="39" t="str">
+      <c r="M57" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="P57" s="37"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="38"/>
-    </row>
-    <row r="58" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+      <c r="P57" s="36"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+    </row>
+    <row r="58" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="43">
         <v>233.64775543478299</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="43">
         <v>241.29685816876099</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F58" s="43">
         <v>251.26076177285299</v>
       </c>
-      <c r="G58" s="44">
+      <c r="G58" s="43">
         <v>262.20243767313002</v>
       </c>
-      <c r="H58" s="45">
+      <c r="H58" s="44">
         <v>92.892156709723196</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="44">
         <v>91.0013135804287</v>
       </c>
-      <c r="J58" s="45">
+      <c r="J58" s="44">
         <v>87.761232493585098</v>
       </c>
-      <c r="K58" s="45">
+      <c r="K58" s="44">
         <v>94.430771352392895</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="35">
         <v>1.1233118102720801E-7</v>
       </c>
-      <c r="M58" s="33" t="str">
+      <c r="M58" s="32" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="N58" s="32"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
-      <c r="X58" s="46"/>
-      <c r="Y58" s="46"/>
-      <c r="Z58" s="46"/>
-      <c r="AA58" s="46"/>
-    </row>
-    <row r="59" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="N58" s="31"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="45"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="45"/>
+    </row>
+    <row r="59" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="42">
+      <c r="D59" s="41">
         <v>75.582646739130396</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="41">
         <v>81.721921005385994</v>
       </c>
-      <c r="F59" s="42">
+      <c r="F59" s="41">
         <v>85.170470914127407</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="41">
         <v>89.482659279778403</v>
       </c>
-      <c r="H59" s="43">
+      <c r="H59" s="42">
         <v>31.300614132705</v>
       </c>
-      <c r="I59" s="43">
+      <c r="I59" s="42">
         <v>31.3248547190686</v>
       </c>
-      <c r="J59" s="43">
+      <c r="J59" s="42">
         <v>29.6766654858823</v>
       </c>
-      <c r="K59" s="43">
+      <c r="K59" s="42">
         <v>32.9395605320939</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L59" s="37">
         <v>1.2801219661529599E-17</v>
       </c>
-      <c r="M59" s="39" t="str">
+      <c r="M59" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
-      <c r="X59" s="46"/>
-      <c r="Y59" s="46"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="46"/>
-    </row>
-    <row r="60" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="45"/>
+    </row>
+    <row r="60" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="42">
+      <c r="D60" s="41">
         <v>13.7460326086957</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="41">
         <v>17.9187612208259</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="41">
         <v>22.552493074792199</v>
       </c>
-      <c r="G60" s="42">
+      <c r="G60" s="41">
         <v>26.0673130193906</v>
       </c>
-      <c r="H60" s="43">
+      <c r="H60" s="42">
         <v>6.4970895746289603</v>
       </c>
-      <c r="I60" s="43">
+      <c r="I60" s="42">
         <v>7.6717385987219497</v>
       </c>
-      <c r="J60" s="43">
+      <c r="J60" s="42">
         <v>9.6461834358685206</v>
       </c>
-      <c r="K60" s="43">
+      <c r="K60" s="42">
         <v>10.807377790404299</v>
       </c>
-      <c r="L60" s="38">
+      <c r="L60" s="37">
         <v>3.8670787340887001E-196</v>
       </c>
-      <c r="M60" s="39" t="str">
+      <c r="M60" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="46"/>
-      <c r="X60" s="46"/>
-      <c r="Y60" s="46"/>
-      <c r="Z60" s="46"/>
-      <c r="AA60" s="46"/>
-    </row>
-    <row r="61" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+      <c r="Y60" s="45"/>
+      <c r="Z60" s="45"/>
+      <c r="AA60" s="45"/>
+    </row>
+    <row r="61" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="42">
+      <c r="D61" s="41">
         <v>75.722364130434798</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="41">
         <v>80.800978456014406</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="41">
         <v>82.935249307479197</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="41">
         <v>90.700277008310294</v>
       </c>
-      <c r="H61" s="43">
+      <c r="H61" s="42">
         <v>33.725294251612098</v>
       </c>
-      <c r="I61" s="43">
+      <c r="I61" s="42">
         <v>34.139975082554599</v>
       </c>
-      <c r="J61" s="43">
+      <c r="J61" s="42">
         <v>35.062052846329202</v>
       </c>
-      <c r="K61" s="43">
+      <c r="K61" s="42">
         <v>37.7728385594692</v>
       </c>
-      <c r="L61" s="38">
+      <c r="L61" s="37">
         <v>4.8404808514881801E-14</v>
       </c>
-      <c r="M61" s="39" t="str">
+      <c r="M61" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="46"/>
-      <c r="Y61" s="46"/>
-      <c r="Z61" s="46"/>
-      <c r="AA61" s="46"/>
-    </row>
-    <row r="62" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+      <c r="Y61" s="45"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="45"/>
+    </row>
+    <row r="62" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="42">
+      <c r="D62" s="41">
         <v>25.544632065217399</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="41">
         <v>26.095012118491901</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="41">
         <v>24.936494459833799</v>
       </c>
-      <c r="G62" s="42">
+      <c r="G62" s="41">
         <v>26.311961218836601</v>
       </c>
-      <c r="H62" s="43">
+      <c r="H62" s="42">
         <v>13.0899635751001</v>
       </c>
-      <c r="I62" s="43">
+      <c r="I62" s="42">
         <v>12.408769776193299</v>
       </c>
-      <c r="J62" s="43">
+      <c r="J62" s="42">
         <v>12.1207108020607</v>
       </c>
-      <c r="K62" s="43">
+      <c r="K62" s="42">
         <v>12.2500265499097</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="27">
         <v>0.32447805266602697</v>
       </c>
-      <c r="M62" s="39" t="str">
+      <c r="M62" s="38" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
-      <c r="X62" s="46"/>
-      <c r="Y62" s="46"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="46"/>
-    </row>
-    <row r="63" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="45"/>
+    </row>
+    <row r="63" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="41">
         <v>26.075614402173901</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="41">
         <v>28.544790843806101</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="41">
         <v>30.099698060941801</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="41">
         <v>33.8145332409972</v>
       </c>
-      <c r="H63" s="43">
+      <c r="H63" s="42">
         <v>12.047016854068101</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="42">
         <v>12.585692063231299</v>
       </c>
-      <c r="J63" s="43">
+      <c r="J63" s="42">
         <v>13.6804557912301</v>
       </c>
-      <c r="K63" s="43">
+      <c r="K63" s="42">
         <v>15.6310252466939</v>
       </c>
-      <c r="L63" s="38">
+      <c r="L63" s="37">
         <v>3.4144257913363099E-27</v>
       </c>
-      <c r="M63" s="39" t="str">
+      <c r="M63" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
-      <c r="X63" s="46"/>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="46"/>
-    </row>
-    <row r="64" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+      <c r="W63" s="45"/>
+      <c r="X63" s="45"/>
+      <c r="Y63" s="45"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="45"/>
+    </row>
+    <row r="64" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>16.976972826087</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>18.7526422800718</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="41">
         <v>20.648328254847598</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="41">
         <v>22.7284141274238</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="42">
         <v>8.4711353166077501</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="42">
         <v>9.0474498082593797</v>
       </c>
-      <c r="J64" s="43">
+      <c r="J64" s="42">
         <v>10.02743829441</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K64" s="42">
         <v>10.8513297462592</v>
       </c>
-      <c r="L64" s="38">
+      <c r="L64" s="37">
         <v>5.5854682546517995E-32</v>
       </c>
-      <c r="M64" s="39" t="str">
+      <c r="M64" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="46"/>
-    </row>
-    <row r="65" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+      <c r="W64" s="45"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="45"/>
+    </row>
+    <row r="65" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D65" s="41">
         <v>7.9189673913043501</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="41">
         <v>6.4829443447037702</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="41">
         <v>7.3295013850415502</v>
       </c>
-      <c r="G65" s="42">
+      <c r="G65" s="41">
         <v>6.6909972299169</v>
       </c>
-      <c r="H65" s="43">
+      <c r="H65" s="42">
         <v>20.402173020746702</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="42">
         <v>16.185007591843199</v>
       </c>
-      <c r="J65" s="43">
+      <c r="J65" s="42">
         <v>15.2614072372702</v>
       </c>
-      <c r="K65" s="43">
+      <c r="K65" s="42">
         <v>17.590970556336</v>
       </c>
-      <c r="L65" s="28">
+      <c r="L65" s="27">
         <v>0.200252423105267</v>
       </c>
-      <c r="M65" s="39" t="str">
+      <c r="M65" s="38" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
-      <c r="X65" s="46"/>
-      <c r="Y65" s="46"/>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="46"/>
-    </row>
-    <row r="66" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+    </row>
+    <row r="66" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>43.052587228260897</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>47.297433123877902</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="41">
         <v>50.748026315789502</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="41">
         <v>56.542947368421103</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="42">
         <v>19.437877223394</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="42">
         <v>20.5365000585379</v>
       </c>
-      <c r="J66" s="43">
+      <c r="J66" s="42">
         <v>22.366079278303001</v>
       </c>
-      <c r="K66" s="43">
+      <c r="K66" s="42">
         <v>25.173218996722401</v>
       </c>
-      <c r="L66" s="38">
+      <c r="L66" s="37">
         <v>2.8724646559630402E-32</v>
       </c>
-      <c r="M66" s="39" t="str">
+      <c r="M66" s="38" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
-      <c r="X66" s="46"/>
-      <c r="Y66" s="46"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="46"/>
-    </row>
-    <row r="67" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="45"/>
+    </row>
+    <row r="67" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="48" t="s">
+      <c r="C67" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="49">
+      <c r="D67" s="48">
         <v>16.7207820059783</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="48">
         <v>14.6096521750449</v>
       </c>
-      <c r="F67" s="49">
+      <c r="F67" s="48">
         <v>13.0500655706371</v>
       </c>
-      <c r="G67" s="49">
+      <c r="G67" s="48">
         <v>12.6009312285319</v>
       </c>
-      <c r="H67" s="50">
+      <c r="H67" s="49">
         <v>13.212045099403101</v>
       </c>
-      <c r="I67" s="50">
+      <c r="I67" s="49">
         <v>10.814920999185</v>
       </c>
-      <c r="J67" s="50">
+      <c r="J67" s="49">
         <v>10.3991557235708</v>
       </c>
-      <c r="K67" s="50">
+      <c r="K67" s="49">
         <v>9.6365412749561603</v>
       </c>
-      <c r="L67" s="51">
+      <c r="L67" s="50">
         <v>4.5156499825869798E-13</v>
       </c>
-      <c r="M67" s="48" t="str">
+      <c r="M67" s="47" t="str">
         <f t="shared" si="12"/>
         <v>*</v>
       </c>
-      <c r="N67" s="47"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="46"/>
-    </row>
-    <row r="68" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="N67" s="46"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
+    </row>
+    <row r="68" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="L70" s="28" t="s">
+      <c r="L70" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+    <row r="71" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29" t="s">
+      <c r="B71" s="28"/>
+      <c r="C71" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="30" t="s">
+      <c r="G71" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="J71" s="29" t="s">
+      <c r="J71" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="K71" s="29" t="s">
+      <c r="K71" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L71" s="29" t="s">
+      <c r="L71" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="M71" s="31" t="s">
+      <c r="M71" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="N71" s="29"/>
-    </row>
-    <row r="72" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
+      <c r="N71" s="28"/>
+    </row>
+    <row r="72" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="51">
         <v>0.18295094945652199</v>
       </c>
-      <c r="E72" s="52">
+      <c r="E72" s="51">
         <v>0.73944302378815097</v>
       </c>
-      <c r="F72" s="52">
+      <c r="F72" s="51">
         <v>1.1368618601108</v>
       </c>
-      <c r="G72" s="52">
+      <c r="G72" s="51">
         <v>1.4061646759002799</v>
       </c>
-      <c r="H72" s="53">
+      <c r="H72" s="52">
         <v>0.58621274902950804</v>
       </c>
-      <c r="I72" s="53">
+      <c r="I72" s="52">
         <v>1.1143929552431999</v>
       </c>
-      <c r="J72" s="53">
+      <c r="J72" s="52">
         <v>1.4592994855074</v>
       </c>
-      <c r="K72" s="53">
+      <c r="K72" s="52">
         <v>1.89958794616503</v>
       </c>
-      <c r="L72" s="36">
+      <c r="L72" s="35">
         <v>1.0498513205627999E-121</v>
       </c>
-      <c r="M72" s="33" t="str">
+      <c r="M72" s="32" t="str">
         <f>IF(L72&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
-      <c r="N72" s="32"/>
-    </row>
-    <row r="73" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="N72" s="31"/>
+    </row>
+    <row r="73" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="54">
+      <c r="D73" s="53">
         <v>5.8002972948369598</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E73" s="53">
         <v>7.0372894268402204</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="53">
         <v>8.0596675844875296</v>
       </c>
-      <c r="G73" s="54">
+      <c r="G73" s="53">
         <v>8.9077567285318597</v>
       </c>
-      <c r="H73" s="55">
+      <c r="H73" s="54">
         <v>3.3871550342967902</v>
       </c>
-      <c r="I73" s="55">
+      <c r="I73" s="54">
         <v>3.5436256120641101</v>
       </c>
-      <c r="J73" s="55">
+      <c r="J73" s="54">
         <v>3.7407350231899601</v>
       </c>
-      <c r="K73" s="55">
+      <c r="K73" s="54">
         <v>4.3471158405075601</v>
       </c>
-      <c r="L73" s="38">
+      <c r="L73" s="37">
         <v>1.6635055820584701E-65</v>
       </c>
-      <c r="M73" s="39" t="str">
+      <c r="M73" s="38" t="str">
         <f t="shared" ref="M73:M77" si="13">IF(L73&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+    <row r="74" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="54">
+      <c r="E74" s="53">
         <v>11.0492621635936</v>
       </c>
-      <c r="F74" s="54">
+      <c r="F74" s="53">
         <v>15.4541793938045</v>
       </c>
-      <c r="G74" s="54">
+      <c r="G74" s="53">
         <v>16.887813961647598</v>
       </c>
-      <c r="H74" s="55" t="s">
+      <c r="H74" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="55">
+      <c r="I74" s="54">
         <v>16.2121941166866</v>
       </c>
-      <c r="J74" s="55">
+      <c r="J74" s="54">
         <v>19.0118043785385</v>
       </c>
-      <c r="K74" s="55">
+      <c r="K74" s="54">
         <v>20.636122716293102</v>
       </c>
-      <c r="L74" s="38">
+      <c r="L74" s="37">
         <v>4.8632115582192202E-105</v>
       </c>
-      <c r="M74" s="39" t="str">
+      <c r="M74" s="38" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+    <row r="75" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="54">
+      <c r="D75" s="53">
         <v>0.80476297934782604</v>
       </c>
-      <c r="E75" s="54">
+      <c r="E75" s="53">
         <v>1.0180605439856401</v>
       </c>
-      <c r="F75" s="54">
+      <c r="F75" s="53">
         <v>1.25080382963989</v>
       </c>
-      <c r="G75" s="54">
+      <c r="G75" s="53">
         <v>1.4129053822714699</v>
       </c>
-      <c r="H75" s="55">
+      <c r="H75" s="54">
         <v>0.94377771426720303</v>
       </c>
-      <c r="I75" s="55">
+      <c r="I75" s="54">
         <v>1.0074734428616301</v>
       </c>
-      <c r="J75" s="55">
+      <c r="J75" s="54">
         <v>1.22448903832413</v>
       </c>
-      <c r="K75" s="55">
+      <c r="K75" s="54">
         <v>1.3586364085246001</v>
       </c>
-      <c r="L75" s="38">
+      <c r="L75" s="37">
         <v>1.03578144240093E-29</v>
       </c>
-      <c r="M75" s="39" t="str">
+      <c r="M75" s="38" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+    <row r="76" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="54">
+      <c r="D76" s="53">
         <v>1.3737441263587</v>
       </c>
-      <c r="E76" s="54">
+      <c r="E76" s="53">
         <v>1.51076845152603</v>
       </c>
-      <c r="F76" s="54">
+      <c r="F76" s="53">
         <v>1.7714781218836599</v>
       </c>
-      <c r="G76" s="54">
+      <c r="G76" s="53">
         <v>1.72295080470914</v>
       </c>
-      <c r="H76" s="55">
+      <c r="H76" s="54">
         <v>0.93428129668897797</v>
       </c>
-      <c r="I76" s="55">
+      <c r="I76" s="54">
         <v>1.0057319753223299</v>
       </c>
-      <c r="J76" s="55">
+      <c r="J76" s="54">
         <v>0.99400571594227705</v>
       </c>
-      <c r="K76" s="55">
+      <c r="K76" s="54">
         <v>1.0456873735604399</v>
       </c>
-      <c r="L76" s="38">
+      <c r="L76" s="37">
         <v>1.5013294810008501E-16</v>
       </c>
-      <c r="M76" s="39" t="str">
+      <c r="M76" s="38" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+    <row r="77" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="41">
         <v>0</v>
       </c>
-      <c r="E77" s="42">
+      <c r="E77" s="41">
         <v>49.630228904847399</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="41">
         <v>105.32069252077601</v>
       </c>
-      <c r="G77" s="42">
+      <c r="G77" s="41">
         <v>129.239390581717</v>
       </c>
-      <c r="H77" s="43">
+      <c r="H77" s="42">
         <v>0</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="42">
         <v>57.044120088906197</v>
       </c>
-      <c r="J77" s="43">
+      <c r="J77" s="42">
         <v>102.10640904804001</v>
       </c>
-      <c r="K77" s="43">
+      <c r="K77" s="42">
         <v>106.97487550258801</v>
       </c>
-      <c r="L77" s="38">
+      <c r="L77" s="37">
         <v>9.4443410000000005E-68</v>
       </c>
-      <c r="M77" s="39" t="str">
+      <c r="M77" s="38" t="str">
         <f t="shared" si="13"/>
         <v>*</v>
       </c>
-      <c r="O77" s="28" t="s">
+      <c r="O77" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+    <row r="78" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="39" t="s">
+      <c r="C78" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="41">
         <v>13.8524456521739</v>
       </c>
-      <c r="E78" s="42">
+      <c r="E78" s="41">
         <v>15.8936265709156</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="41">
         <v>18.132963988919698</v>
       </c>
-      <c r="G78" s="42">
+      <c r="G78" s="41">
         <v>18.608033240997202</v>
       </c>
-      <c r="H78" s="43">
+      <c r="H78" s="42">
         <v>4.6365564580015199</v>
       </c>
-      <c r="I78" s="43">
+      <c r="I78" s="42">
         <v>4.8096418536825603</v>
       </c>
-      <c r="J78" s="43">
+      <c r="J78" s="42">
         <v>5.0926465856096703</v>
       </c>
-      <c r="K78" s="43">
+      <c r="K78" s="42">
         <v>5.1753386103930703</v>
       </c>
-      <c r="L78" s="38">
+      <c r="L78" s="37">
         <v>4.8072698541393398E-98</v>
       </c>
-      <c r="M78" s="39" t="str">
+      <c r="M78" s="38" t="str">
         <f t="shared" ref="M78:M89" si="14">IF(L78&lt;0.01,"*","")</f>
         <v>*</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47" t="s">
+    <row r="79" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D79" s="48">
         <v>1954.17445652174</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="48">
         <v>2037.63779174147</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="48">
         <v>2108.7202216066498</v>
       </c>
-      <c r="G79" s="49">
+      <c r="G79" s="48">
         <v>2225.1080332410002</v>
       </c>
-      <c r="H79" s="50">
+      <c r="H79" s="49">
         <v>719.81671225279399</v>
       </c>
-      <c r="I79" s="50">
+      <c r="I79" s="49">
         <v>702.42858912509803</v>
       </c>
-      <c r="J79" s="50">
+      <c r="J79" s="49">
         <v>684.00986985728002</v>
       </c>
-      <c r="K79" s="50">
+      <c r="K79" s="49">
         <v>742.97397944324598</v>
       </c>
-      <c r="L79" s="51">
+      <c r="L79" s="50">
         <v>4.0303682251243398E-11</v>
       </c>
-      <c r="M79" s="48" t="str">
+      <c r="M79" s="47" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="N79" s="47"/>
-    </row>
-    <row r="80" spans="1:27" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
+      <c r="N79" s="46"/>
+    </row>
+    <row r="80" spans="1:27" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="42">
+      <c r="D80" s="41">
         <v>240.92472408021001</v>
       </c>
-      <c r="E80" s="42">
+      <c r="E80" s="41">
         <v>238.05501624419799</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F80" s="41">
         <v>240.06671594557801</v>
       </c>
-      <c r="G80" s="42">
+      <c r="G80" s="41">
         <v>237.76345621090201</v>
       </c>
-      <c r="H80" s="43">
+      <c r="H80" s="42">
         <v>45.124499474631598</v>
       </c>
-      <c r="I80" s="43">
+      <c r="I80" s="42">
         <v>42.299336977145401</v>
       </c>
-      <c r="J80" s="43">
+      <c r="J80" s="42">
         <v>45.664776057350998</v>
       </c>
-      <c r="K80" s="43">
+      <c r="K80" s="42">
         <v>45.281026680544699</v>
       </c>
-      <c r="L80" s="46">
+      <c r="L80" s="45">
         <v>0.30264775891721102</v>
       </c>
-      <c r="M80" s="39" t="str">
+      <c r="M80" s="38" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-    </row>
-    <row r="81" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+    </row>
+    <row r="81" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="39" t="s">
+      <c r="C81" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D81" s="41">
         <v>79.090873154806104</v>
       </c>
-      <c r="E81" s="42">
+      <c r="E81" s="41">
         <v>81.697296430361803</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="41">
         <v>82.201738831625306</v>
       </c>
-      <c r="G81" s="42">
+      <c r="G81" s="41">
         <v>81.744964540343403</v>
       </c>
-      <c r="H81" s="43">
+      <c r="H81" s="42">
         <v>22.501090167821499</v>
       </c>
-      <c r="I81" s="43">
+      <c r="I81" s="42">
         <v>20.732164667198301</v>
       </c>
-      <c r="J81" s="43">
+      <c r="J81" s="42">
         <v>19.757347837250801</v>
       </c>
-      <c r="K81" s="43">
+      <c r="K81" s="42">
         <v>19.639930883525601</v>
       </c>
-      <c r="L81" s="38">
+      <c r="L81" s="37">
         <v>1.9450024880622199E-3</v>
       </c>
-      <c r="M81" s="39" t="str">
+      <c r="M81" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+    <row r="82" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="28" t="s">
+      <c r="B82" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D82" s="41">
         <v>14.6315841462399</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="41">
         <v>18.175792222548601</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="41">
         <v>22.3221343771683</v>
       </c>
-      <c r="G82" s="42">
+      <c r="G82" s="41">
         <v>24.3240707242913</v>
       </c>
-      <c r="H82" s="43">
+      <c r="H82" s="42">
         <v>6.0301226490366</v>
       </c>
-      <c r="I82" s="43">
+      <c r="I82" s="42">
         <v>6.7322604989436297</v>
       </c>
-      <c r="J82" s="43">
+      <c r="J82" s="42">
         <v>9.4079059922520507</v>
       </c>
-      <c r="K82" s="43">
+      <c r="K82" s="42">
         <v>8.9702736989694696</v>
       </c>
-      <c r="L82" s="38">
+      <c r="L82" s="37">
         <v>6.2283567032546602E-164</v>
       </c>
-      <c r="M82" s="39" t="str">
+      <c r="M82" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="AA82" s="38"/>
-    </row>
-    <row r="83" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="AA82" s="37"/>
+    </row>
+    <row r="83" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D83" s="41">
         <v>76.753965780510995</v>
       </c>
-      <c r="E83" s="42">
+      <c r="E83" s="41">
         <v>78.506666707014006</v>
       </c>
-      <c r="F83" s="42">
+      <c r="F83" s="41">
         <v>77.780674785408493</v>
       </c>
-      <c r="G83" s="42">
+      <c r="G83" s="41">
         <v>80.784614493553093</v>
       </c>
-      <c r="H83" s="43">
+      <c r="H83" s="42">
         <v>15.931959593146001</v>
       </c>
-      <c r="I83" s="43">
+      <c r="I83" s="42">
         <v>15.818551307146199</v>
       </c>
-      <c r="J83" s="43">
+      <c r="J83" s="42">
         <v>16.955702751197599</v>
       </c>
-      <c r="K83" s="43">
+      <c r="K83" s="42">
         <v>17.933126451884501</v>
       </c>
-      <c r="L83" s="38">
+      <c r="L83" s="37">
         <v>6.6575160657740697E-5</v>
       </c>
-      <c r="M83" s="39" t="str">
+      <c r="M83" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="AA83" s="38"/>
-    </row>
-    <row r="84" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="AA83" s="37"/>
+    </row>
+    <row r="84" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="42">
+      <c r="D84" s="41">
         <v>25.6229990537399</v>
       </c>
-      <c r="E84" s="42">
+      <c r="E84" s="41">
         <v>25.147446966386902</v>
       </c>
-      <c r="F84" s="42">
+      <c r="F84" s="41">
         <v>23.1980884956523</v>
       </c>
-      <c r="G84" s="42">
+      <c r="G84" s="41">
         <v>23.3431420477168</v>
       </c>
-      <c r="H84" s="43">
+      <c r="H84" s="42">
         <v>7.2222869913133598</v>
       </c>
-      <c r="I84" s="43">
+      <c r="I84" s="42">
         <v>6.8231248362154497</v>
       </c>
-      <c r="J84" s="43">
+      <c r="J84" s="42">
         <v>6.9925313481890798</v>
       </c>
-      <c r="K84" s="43">
+      <c r="K84" s="42">
         <v>6.5818441338071798</v>
       </c>
-      <c r="L84" s="28">
+      <c r="L84" s="27">
         <v>1.2888568912707299E-12</v>
       </c>
-      <c r="M84" s="39" t="str">
+      <c r="M84" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="AA84" s="38"/>
-    </row>
-    <row r="85" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="AA84" s="37"/>
+    </row>
+    <row r="85" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="42">
+      <c r="D85" s="41">
         <v>26.471315691472199</v>
       </c>
-      <c r="E85" s="42">
+      <c r="E85" s="41">
         <v>27.7857591847226</v>
       </c>
-      <c r="F85" s="42">
+      <c r="F85" s="41">
         <v>28.245453411804199</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="41">
         <v>30.116680474197899</v>
       </c>
-      <c r="H85" s="43">
+      <c r="H85" s="42">
         <v>6.5149684411013196</v>
       </c>
-      <c r="I85" s="43">
+      <c r="I85" s="42">
         <v>6.8081568506262196</v>
       </c>
-      <c r="J85" s="43">
+      <c r="J85" s="42">
         <v>7.6211642270664797</v>
       </c>
-      <c r="K85" s="43">
+      <c r="K85" s="42">
         <v>8.8939952390376398</v>
       </c>
-      <c r="L85" s="38">
+      <c r="L85" s="37">
         <v>2.1751664148863601E-20</v>
       </c>
-      <c r="M85" s="39" t="str">
+      <c r="M85" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="AA85" s="38"/>
-    </row>
-    <row r="86" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="AA85" s="37"/>
+    </row>
+    <row r="86" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="42">
+      <c r="D86" s="41">
         <v>17.394304559973001</v>
       </c>
-      <c r="E86" s="42">
+      <c r="E86" s="41">
         <v>18.361447499343502</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="41">
         <v>19.485115048546199</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="41">
         <v>20.302946639643199</v>
       </c>
-      <c r="H86" s="43">
+      <c r="H86" s="42">
         <v>6.0347049468476301</v>
       </c>
-      <c r="I86" s="43">
+      <c r="I86" s="42">
         <v>5.98288269219508</v>
       </c>
-      <c r="J86" s="43">
+      <c r="J86" s="42">
         <v>6.3779164321915003</v>
       </c>
-      <c r="K86" s="43">
+      <c r="K86" s="42">
         <v>6.5174747181151202</v>
       </c>
-      <c r="L86" s="38">
+      <c r="L86" s="37">
         <v>1.6510316802959001E-19</v>
       </c>
-      <c r="M86" s="39" t="str">
+      <c r="M86" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="AA86" s="38"/>
-    </row>
-    <row r="87" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="AA86" s="37"/>
+    </row>
+    <row r="87" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="42">
+      <c r="D87" s="41">
         <v>43.8656202514452</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E87" s="41">
         <v>46.147206684066099</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="41">
         <v>47.730568460350497</v>
       </c>
-      <c r="G87" s="42">
+      <c r="G87" s="41">
         <v>50.419627113841102</v>
       </c>
-      <c r="H87" s="43">
+      <c r="H87" s="42">
         <v>10.7861650294467</v>
       </c>
-      <c r="I87" s="43">
+      <c r="I87" s="42">
         <v>11.0959864647277</v>
       </c>
-      <c r="J87" s="43">
+      <c r="J87" s="42">
         <v>12.1830404802865</v>
       </c>
-      <c r="K87" s="43">
+      <c r="K87" s="42">
         <v>13.7583028270271</v>
       </c>
-      <c r="L87" s="38">
+      <c r="L87" s="37">
         <v>3.72793123688149E-26</v>
       </c>
-      <c r="M87" s="39" t="str">
+      <c r="M87" s="38" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="AA87" s="38"/>
-    </row>
-    <row r="88" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
+      <c r="AA87" s="37"/>
+    </row>
+    <row r="88" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="42">
+      <c r="D88" s="41">
         <v>7.1735663273710504</v>
       </c>
-      <c r="E88" s="42">
+      <c r="E88" s="41">
         <v>5.9646146613079196</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="41">
         <v>6.4359744429905703</v>
       </c>
-      <c r="G88" s="42">
+      <c r="G88" s="41">
         <v>5.2249033051735401</v>
       </c>
-      <c r="H88" s="43">
+      <c r="H88" s="42">
         <v>16.898905203155099</v>
       </c>
-      <c r="I88" s="43">
+      <c r="I88" s="42">
         <v>13.733073097198901</v>
       </c>
-      <c r="J88" s="43">
+      <c r="J88" s="42">
         <v>12.931966473987901</v>
       </c>
-      <c r="K88" s="43">
+      <c r="K88" s="42">
         <v>12.3867320140624</v>
       </c>
-      <c r="L88" s="57">
+      <c r="L88" s="56">
         <v>5.7903000498847598E-2</v>
       </c>
-      <c r="M88" s="39" t="str">
+      <c r="M88" s="38" t="str">
         <f>IF(L88&lt;0.01,"*","")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
+    <row r="89" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="49">
+      <c r="D89" s="48">
         <v>16.649647577247698</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="48">
         <v>13.941390645478901</v>
       </c>
-      <c r="F89" s="49">
+      <c r="F89" s="48">
         <v>11.9071613836223</v>
       </c>
-      <c r="G89" s="49">
+      <c r="G89" s="48">
         <v>11.095532674471301</v>
       </c>
-      <c r="H89" s="50">
+      <c r="H89" s="49">
         <v>10.5356137393983</v>
       </c>
-      <c r="I89" s="50">
+      <c r="I89" s="49">
         <v>8.3961355817353898</v>
       </c>
-      <c r="J89" s="50">
+      <c r="J89" s="49">
         <v>7.7593115909731303</v>
       </c>
-      <c r="K89" s="50">
+      <c r="K89" s="49">
         <v>7.1628873152820098</v>
       </c>
-      <c r="L89" s="51">
+      <c r="L89" s="50">
         <v>3.7557936039960502E-36</v>
       </c>
-      <c r="M89" s="48" t="str">
+      <c r="M89" s="47" t="str">
         <f t="shared" si="14"/>
         <v>*</v>
       </c>
-      <c r="N89" s="47"/>
-      <c r="AA89" s="38"/>
-    </row>
-    <row r="90" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
+      <c r="N89" s="46"/>
+      <c r="AA89" s="37"/>
+    </row>
+    <row r="90" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="S91" s="58"/>
-      <c r="T91" s="58"/>
-      <c r="U91" s="58"/>
-      <c r="V91" s="58"/>
-      <c r="W91" s="58"/>
-      <c r="X91" s="58"/>
-      <c r="Y91" s="58"/>
-      <c r="Z91" s="58"/>
-      <c r="AA91" s="58"/>
-    </row>
-    <row r="92" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
+      <c r="D91" s="56"/>
+      <c r="S91" s="57"/>
+      <c r="T91" s="57"/>
+      <c r="U91" s="57"/>
+      <c r="V91" s="57"/>
+      <c r="W91" s="57"/>
+      <c r="X91" s="57"/>
+      <c r="Y91" s="57"/>
+      <c r="Z91" s="57"/>
+      <c r="AA91" s="57"/>
+    </row>
+    <row r="92" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S92" s="58"/>
-      <c r="T92" s="58"/>
-      <c r="U92" s="58"/>
-      <c r="V92" s="58"/>
-      <c r="W92" s="58"/>
-      <c r="X92" s="58"/>
-      <c r="Y92" s="58"/>
-      <c r="Z92" s="58"/>
-      <c r="AA92" s="58"/>
-    </row>
-    <row r="93" spans="1:27" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="57"/>
-      <c r="S93" s="58"/>
-      <c r="T93" s="58"/>
-      <c r="U93" s="58"/>
-      <c r="V93" s="58"/>
-      <c r="W93" s="58"/>
-      <c r="X93" s="58"/>
-      <c r="Y93" s="58"/>
-      <c r="Z93" s="58"/>
-      <c r="AA93" s="58"/>
-    </row>
-    <row r="94" spans="1:27" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
+      <c r="S92" s="57"/>
+      <c r="T92" s="57"/>
+      <c r="U92" s="57"/>
+      <c r="V92" s="57"/>
+      <c r="W92" s="57"/>
+      <c r="X92" s="57"/>
+      <c r="Y92" s="57"/>
+      <c r="Z92" s="57"/>
+      <c r="AA92" s="57"/>
+    </row>
+    <row r="93" spans="1:27" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="56"/>
+      <c r="S93" s="57"/>
+      <c r="T93" s="57"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="57"/>
+      <c r="W93" s="57"/>
+      <c r="X93" s="57"/>
+      <c r="Y93" s="57"/>
+      <c r="Z93" s="57"/>
+      <c r="AA93" s="57"/>
+    </row>
+    <row r="94" spans="1:27" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C94" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D94" s="59" t="s">
+      <c r="D94" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E94" s="59" t="s">
+      <c r="E94" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F94" s="59" t="s">
+      <c r="F94" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H94" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="S94" s="58"/>
-      <c r="T94" s="58"/>
-      <c r="U94" s="58"/>
-      <c r="V94" s="58"/>
-      <c r="W94" s="58"/>
-      <c r="X94" s="58"/>
-      <c r="Y94" s="58"/>
-      <c r="Z94" s="58"/>
-      <c r="AA94" s="58"/>
-    </row>
-    <row r="95" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="S94" s="57"/>
+      <c r="T94" s="57"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="57"/>
+      <c r="W94" s="57"/>
+      <c r="X94" s="57"/>
+      <c r="Y94" s="57"/>
+      <c r="Z94" s="57"/>
+      <c r="AA94" s="57"/>
+    </row>
+    <row r="95" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="39" t="str">
+      <c r="C95" s="38" t="str">
         <f>CONCATENATE(ROUND(D72, 1), " (",ROUND(H72,1),")")</f>
         <v>0.2 (0.6)</v>
       </c>
-      <c r="D95" s="39" t="str">
+      <c r="D95" s="38" t="str">
         <f t="shared" ref="C95:F96" si="15">CONCATENATE(ROUND(E72, 1), " (",ROUND(I72,1),")")</f>
         <v>0.7 (1.1)</v>
       </c>
-      <c r="E95" s="39" t="str">
+      <c r="E95" s="38" t="str">
         <f t="shared" si="15"/>
         <v>1.1 (1.5)</v>
       </c>
-      <c r="F95" s="39" t="str">
+      <c r="F95" s="38" t="str">
         <f t="shared" si="15"/>
         <v>1.4 (1.9)</v>
       </c>
-      <c r="G95" s="39" t="str">
+      <c r="G95" s="38" t="str">
         <f t="shared" ref="G95:G112" si="16">IF(H95&lt;0.0001,"&lt;0.0001",IF(H95&lt;0.001,"&lt;0.001",IF(H95&lt;0.01,"&lt;0.01",ROUND(H95,3))))</f>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H95" s="38">
+      <c r="H95" s="37">
         <f t="shared" ref="H95:H112" si="17">L72</f>
         <v>1.0498513205627999E-121</v>
       </c>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="S95" s="58"/>
-      <c r="T95" s="58"/>
-      <c r="U95" s="58"/>
-      <c r="V95" s="58"/>
-      <c r="W95" s="58"/>
-      <c r="X95" s="58"/>
-      <c r="Y95" s="58"/>
-      <c r="Z95" s="58"/>
-      <c r="AA95" s="58"/>
-    </row>
-    <row r="96" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="S95" s="57"/>
+      <c r="T95" s="57"/>
+      <c r="U95" s="57"/>
+      <c r="V95" s="57"/>
+      <c r="W95" s="57"/>
+      <c r="X95" s="57"/>
+      <c r="Y95" s="57"/>
+      <c r="Z95" s="57"/>
+      <c r="AA95" s="57"/>
+    </row>
+    <row r="96" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="39" t="str">
+      <c r="C96" s="38" t="str">
         <f t="shared" si="15"/>
         <v>5.8 (3.4)</v>
       </c>
-      <c r="D96" s="39" t="str">
+      <c r="D96" s="38" t="str">
         <f t="shared" si="15"/>
         <v>7 (3.5)</v>
       </c>
-      <c r="E96" s="39" t="str">
+      <c r="E96" s="38" t="str">
         <f t="shared" si="15"/>
         <v>8.1 (3.7)</v>
       </c>
-      <c r="F96" s="39" t="str">
+      <c r="F96" s="38" t="str">
         <f t="shared" si="15"/>
         <v>8.9 (4.3)</v>
       </c>
-      <c r="G96" s="39" t="str">
+      <c r="G96" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H96" s="38">
+      <c r="H96" s="37">
         <f t="shared" si="17"/>
         <v>1.6635055820584701E-65</v>
       </c>
-      <c r="N96" s="38"/>
-      <c r="O96" s="38"/>
-      <c r="S96" s="58"/>
-      <c r="T96" s="58"/>
-      <c r="U96" s="58"/>
-      <c r="V96" s="58"/>
-      <c r="W96" s="58"/>
-      <c r="X96" s="58"/>
-      <c r="Y96" s="58"/>
-      <c r="Z96" s="58"/>
-      <c r="AA96" s="58"/>
-    </row>
-    <row r="97" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="S96" s="57"/>
+      <c r="T96" s="57"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="57"/>
+      <c r="W96" s="57"/>
+      <c r="X96" s="57"/>
+      <c r="Y96" s="57"/>
+      <c r="Z96" s="57"/>
+      <c r="AA96" s="57"/>
+    </row>
+    <row r="97" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D97" s="39" t="str">
+      <c r="D97" s="38" t="str">
         <f t="shared" ref="D97:F99" si="18">CONCATENATE(ROUND(E74, 1), " (",ROUND(I74,1),")")</f>
         <v>11 (16.2)</v>
       </c>
-      <c r="E97" s="39" t="str">
+      <c r="E97" s="38" t="str">
         <f t="shared" si="18"/>
         <v>15.5 (19)</v>
       </c>
-      <c r="F97" s="39" t="str">
+      <c r="F97" s="38" t="str">
         <f t="shared" si="18"/>
         <v>16.9 (20.6)</v>
       </c>
-      <c r="G97" s="39" t="str">
+      <c r="G97" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H97" s="38">
+      <c r="H97" s="37">
         <f t="shared" si="17"/>
         <v>4.8632115582192202E-105</v>
       </c>
-      <c r="N97" s="38"/>
-      <c r="O97" s="38"/>
-      <c r="S97" s="58"/>
-      <c r="T97" s="58"/>
-      <c r="U97" s="58"/>
-      <c r="V97" s="58"/>
-      <c r="W97" s="58"/>
-      <c r="X97" s="58"/>
-      <c r="Y97" s="58"/>
-      <c r="Z97" s="58"/>
-      <c r="AA97" s="58"/>
-    </row>
-    <row r="98" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="S97" s="57"/>
+      <c r="T97" s="57"/>
+      <c r="U97" s="57"/>
+      <c r="V97" s="57"/>
+      <c r="W97" s="57"/>
+      <c r="X97" s="57"/>
+      <c r="Y97" s="57"/>
+      <c r="Z97" s="57"/>
+      <c r="AA97" s="57"/>
+    </row>
+    <row r="98" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="39" t="str">
+      <c r="C98" s="38" t="str">
         <f>CONCATENATE(ROUND(D75, 1), " (",ROUND(H75,1),")")</f>
         <v>0.8 (0.9)</v>
       </c>
-      <c r="D98" s="39" t="str">
+      <c r="D98" s="38" t="str">
         <f t="shared" si="18"/>
         <v>1 (1)</v>
       </c>
-      <c r="E98" s="39" t="str">
+      <c r="E98" s="38" t="str">
         <f t="shared" si="18"/>
         <v>1.3 (1.2)</v>
       </c>
-      <c r="F98" s="39" t="str">
+      <c r="F98" s="38" t="str">
         <f t="shared" si="18"/>
         <v>1.4 (1.4)</v>
       </c>
-      <c r="G98" s="39" t="str">
+      <c r="G98" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H98" s="38">
+      <c r="H98" s="37">
         <f t="shared" si="17"/>
         <v>1.03578144240093E-29</v>
       </c>
-      <c r="N98" s="38"/>
-      <c r="O98" s="38"/>
-      <c r="S98" s="58"/>
-      <c r="T98" s="58"/>
-      <c r="U98" s="58"/>
-      <c r="V98" s="58"/>
-      <c r="W98" s="58"/>
-      <c r="X98" s="58"/>
-      <c r="Y98" s="58"/>
-      <c r="Z98" s="58"/>
-      <c r="AA98" s="58"/>
-    </row>
-    <row r="99" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="S98" s="57"/>
+      <c r="T98" s="57"/>
+      <c r="U98" s="57"/>
+      <c r="V98" s="57"/>
+      <c r="W98" s="57"/>
+      <c r="X98" s="57"/>
+      <c r="Y98" s="57"/>
+      <c r="Z98" s="57"/>
+      <c r="AA98" s="57"/>
+    </row>
+    <row r="99" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="39" t="s">
+      <c r="B99" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="39" t="str">
+      <c r="C99" s="38" t="str">
         <f>CONCATENATE(ROUND(D76, 1), " (",ROUND(H76,1),")")</f>
         <v>1.4 (0.9)</v>
       </c>
-      <c r="D99" s="39" t="str">
+      <c r="D99" s="38" t="str">
         <f t="shared" si="18"/>
         <v>1.5 (1)</v>
       </c>
-      <c r="E99" s="39" t="str">
+      <c r="E99" s="38" t="str">
         <f t="shared" si="18"/>
         <v>1.8 (1)</v>
       </c>
-      <c r="F99" s="39" t="str">
+      <c r="F99" s="38" t="str">
         <f t="shared" si="18"/>
         <v>1.7 (1)</v>
       </c>
-      <c r="G99" s="39" t="str">
+      <c r="G99" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H99" s="38">
+      <c r="H99" s="37">
         <f t="shared" si="17"/>
         <v>1.5013294810008501E-16</v>
       </c>
-      <c r="S99" s="58"/>
-      <c r="T99" s="58"/>
-      <c r="U99" s="58"/>
-      <c r="V99" s="58"/>
-      <c r="W99" s="58"/>
-      <c r="X99" s="58"/>
-      <c r="Y99" s="58"/>
-      <c r="Z99" s="58"/>
-      <c r="AA99" s="58"/>
-    </row>
-    <row r="100" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
+      <c r="S99" s="57"/>
+      <c r="T99" s="57"/>
+      <c r="U99" s="57"/>
+      <c r="V99" s="57"/>
+      <c r="W99" s="57"/>
+      <c r="X99" s="57"/>
+      <c r="Y99" s="57"/>
+      <c r="Z99" s="57"/>
+      <c r="AA99" s="57"/>
+    </row>
+    <row r="100" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="39" t="str">
+      <c r="C100" s="38" t="str">
         <f t="shared" ref="C100:C111" si="19">CONCATENATE(ROUND(D77, 0), " (",ROUND(H77,0),")")</f>
         <v>0 (0)</v>
       </c>
-      <c r="D100" s="39" t="str">
+      <c r="D100" s="38" t="str">
         <f t="shared" ref="D100:D111" si="20">CONCATENATE(ROUND(E77, 0), " (",ROUND(I77,0),")")</f>
         <v>50 (57)</v>
       </c>
-      <c r="E100" s="39" t="str">
+      <c r="E100" s="38" t="str">
         <f t="shared" ref="E100:E111" si="21">CONCATENATE(ROUND(F77, 0), " (",ROUND(J77,0),")")</f>
         <v>105 (102)</v>
       </c>
-      <c r="F100" s="39" t="str">
+      <c r="F100" s="38" t="str">
         <f t="shared" ref="F100:F111" si="22">CONCATENATE(ROUND(G77, 0), " (",ROUND(K77,0),")")</f>
         <v>129 (107)</v>
       </c>
-      <c r="G100" s="39" t="str">
+      <c r="G100" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H100" s="38">
+      <c r="H100" s="37">
         <f t="shared" si="17"/>
         <v>9.4443410000000005E-68</v>
       </c>
-      <c r="I100" s="28" t="s">
+      <c r="I100" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="N100" s="38"/>
-      <c r="O100" s="38"/>
-      <c r="S100" s="58"/>
-      <c r="T100" s="58"/>
-      <c r="U100" s="58"/>
-      <c r="V100" s="58"/>
-      <c r="W100" s="58"/>
-      <c r="X100" s="58"/>
-      <c r="Y100" s="58"/>
-      <c r="Z100" s="58"/>
-      <c r="AA100" s="58"/>
-    </row>
-    <row r="101" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="S100" s="57"/>
+      <c r="T100" s="57"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="57"/>
+      <c r="W100" s="57"/>
+      <c r="X100" s="57"/>
+      <c r="Y100" s="57"/>
+      <c r="Z100" s="57"/>
+      <c r="AA100" s="57"/>
+    </row>
+    <row r="101" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="39" t="str">
+      <c r="C101" s="38" t="str">
         <f t="shared" si="19"/>
         <v>14 (5)</v>
       </c>
-      <c r="D101" s="39" t="str">
+      <c r="D101" s="38" t="str">
         <f t="shared" si="20"/>
         <v>16 (5)</v>
       </c>
-      <c r="E101" s="39" t="str">
+      <c r="E101" s="38" t="str">
         <f t="shared" si="21"/>
         <v>18 (5)</v>
       </c>
-      <c r="F101" s="39" t="str">
+      <c r="F101" s="38" t="str">
         <f t="shared" si="22"/>
         <v>19 (5)</v>
       </c>
-      <c r="G101" s="39" t="str">
+      <c r="G101" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H101" s="38">
+      <c r="H101" s="37">
         <f t="shared" si="17"/>
         <v>4.8072698541393398E-98</v>
       </c>
-      <c r="N101" s="38"/>
-      <c r="O101" s="38"/>
-    </row>
-    <row r="102" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+    </row>
+    <row r="102" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="39" t="str">
+      <c r="C102" s="38" t="str">
         <f t="shared" si="19"/>
         <v>1954 (720)</v>
       </c>
-      <c r="D102" s="39" t="str">
+      <c r="D102" s="38" t="str">
         <f t="shared" si="20"/>
         <v>2038 (702)</v>
       </c>
-      <c r="E102" s="39" t="str">
+      <c r="E102" s="38" t="str">
         <f t="shared" si="21"/>
         <v>2109 (684)</v>
       </c>
-      <c r="F102" s="39" t="str">
+      <c r="F102" s="38" t="str">
         <f t="shared" si="22"/>
         <v>2225 (743)</v>
       </c>
-      <c r="G102" s="39" t="str">
+      <c r="G102" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H102" s="38">
+      <c r="H102" s="37">
         <f t="shared" si="17"/>
         <v>4.0303682251243398E-11</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
+    <row r="103" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="33" t="str">
+      <c r="C103" s="32" t="str">
         <f t="shared" si="19"/>
         <v>241 (45)</v>
       </c>
-      <c r="D103" s="33" t="str">
+      <c r="D103" s="32" t="str">
         <f t="shared" si="20"/>
         <v>238 (42)</v>
       </c>
-      <c r="E103" s="33" t="str">
+      <c r="E103" s="32" t="str">
         <f t="shared" si="21"/>
         <v>240 (46)</v>
       </c>
-      <c r="F103" s="33" t="str">
+      <c r="F103" s="32" t="str">
         <f t="shared" si="22"/>
         <v>238 (45)</v>
       </c>
-      <c r="G103" s="33">
+      <c r="G103" s="32">
         <f t="shared" si="16"/>
         <v>0.30299999999999999</v>
       </c>
-      <c r="H103" s="38">
+      <c r="H103" s="37">
         <f t="shared" si="17"/>
         <v>0.30264775891721102</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
+    <row r="104" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="39" t="str">
+      <c r="C104" s="38" t="str">
         <f t="shared" si="19"/>
         <v>79 (23)</v>
       </c>
-      <c r="D104" s="39" t="str">
+      <c r="D104" s="38" t="str">
         <f t="shared" si="20"/>
         <v>82 (21)</v>
       </c>
-      <c r="E104" s="39" t="str">
+      <c r="E104" s="38" t="str">
         <f t="shared" si="21"/>
         <v>82 (20)</v>
       </c>
-      <c r="F104" s="39" t="str">
+      <c r="F104" s="38" t="str">
         <f t="shared" si="22"/>
         <v>82 (20)</v>
       </c>
-      <c r="G104" s="39" t="str">
+      <c r="G104" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.01</v>
       </c>
-      <c r="H104" s="38">
+      <c r="H104" s="37">
         <f t="shared" si="17"/>
         <v>1.9450024880622199E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
+    <row r="105" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="39" t="str">
+      <c r="C105" s="38" t="str">
         <f t="shared" si="19"/>
         <v>15 (6)</v>
       </c>
-      <c r="D105" s="39" t="str">
+      <c r="D105" s="38" t="str">
         <f t="shared" si="20"/>
         <v>18 (7)</v>
       </c>
-      <c r="E105" s="39" t="str">
+      <c r="E105" s="38" t="str">
         <f t="shared" si="21"/>
         <v>22 (9)</v>
       </c>
-      <c r="F105" s="39" t="str">
+      <c r="F105" s="38" t="str">
         <f t="shared" si="22"/>
         <v>24 (9)</v>
       </c>
-      <c r="G105" s="39" t="str">
+      <c r="G105" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H105" s="38">
+      <c r="H105" s="37">
         <f t="shared" si="17"/>
         <v>6.2283567032546602E-164</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
+    <row r="106" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="39" t="str">
+      <c r="C106" s="38" t="str">
         <f t="shared" si="19"/>
         <v>77 (16)</v>
       </c>
-      <c r="D106" s="39" t="str">
+      <c r="D106" s="38" t="str">
         <f t="shared" si="20"/>
         <v>79 (16)</v>
       </c>
-      <c r="E106" s="39" t="str">
+      <c r="E106" s="38" t="str">
         <f t="shared" si="21"/>
         <v>78 (17)</v>
       </c>
-      <c r="F106" s="39" t="str">
+      <c r="F106" s="38" t="str">
         <f t="shared" si="22"/>
         <v>81 (18)</v>
       </c>
-      <c r="G106" s="39" t="str">
+      <c r="G106" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H106" s="38">
+      <c r="H106" s="37">
         <f t="shared" si="17"/>
         <v>6.6575160657740697E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+    <row r="107" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="39" t="str">
+      <c r="C107" s="38" t="str">
         <f t="shared" si="19"/>
         <v>26 (7)</v>
       </c>
-      <c r="D107" s="39" t="str">
+      <c r="D107" s="38" t="str">
         <f t="shared" si="20"/>
         <v>25 (7)</v>
       </c>
-      <c r="E107" s="39" t="str">
+      <c r="E107" s="38" t="str">
         <f t="shared" si="21"/>
         <v>23 (7)</v>
       </c>
-      <c r="F107" s="39" t="str">
+      <c r="F107" s="38" t="str">
         <f t="shared" si="22"/>
         <v>23 (7)</v>
       </c>
-      <c r="G107" s="39" t="str">
+      <c r="G107" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H107" s="38">
+      <c r="H107" s="37">
         <f t="shared" si="17"/>
         <v>1.2888568912707299E-12</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
+    <row r="108" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="39" t="str">
+      <c r="C108" s="38" t="str">
         <f t="shared" si="19"/>
         <v>26 (7)</v>
       </c>
-      <c r="D108" s="39" t="str">
+      <c r="D108" s="38" t="str">
         <f t="shared" si="20"/>
         <v>28 (7)</v>
       </c>
-      <c r="E108" s="39" t="str">
+      <c r="E108" s="38" t="str">
         <f t="shared" si="21"/>
         <v>28 (8)</v>
       </c>
-      <c r="F108" s="39" t="str">
+      <c r="F108" s="38" t="str">
         <f t="shared" si="22"/>
         <v>30 (9)</v>
       </c>
-      <c r="G108" s="39" t="str">
+      <c r="G108" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H108" s="38">
+      <c r="H108" s="37">
         <f t="shared" si="17"/>
         <v>2.1751664148863601E-20</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+    <row r="109" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="39" t="str">
+      <c r="C109" s="38" t="str">
         <f t="shared" si="19"/>
         <v>17 (6)</v>
       </c>
-      <c r="D109" s="39" t="str">
+      <c r="D109" s="38" t="str">
         <f t="shared" si="20"/>
         <v>18 (6)</v>
       </c>
-      <c r="E109" s="39" t="str">
+      <c r="E109" s="38" t="str">
         <f t="shared" si="21"/>
         <v>19 (6)</v>
       </c>
-      <c r="F109" s="39" t="str">
+      <c r="F109" s="38" t="str">
         <f t="shared" si="22"/>
         <v>20 (7)</v>
       </c>
-      <c r="G109" s="39" t="str">
+      <c r="G109" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H109" s="38">
+      <c r="H109" s="37">
         <f t="shared" si="17"/>
         <v>1.6510316802959001E-19</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
+    <row r="110" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="39" t="str">
+      <c r="C110" s="38" t="str">
         <f t="shared" si="19"/>
         <v>44 (11)</v>
       </c>
-      <c r="D110" s="39" t="str">
+      <c r="D110" s="38" t="str">
         <f t="shared" si="20"/>
         <v>46 (11)</v>
       </c>
-      <c r="E110" s="39" t="str">
+      <c r="E110" s="38" t="str">
         <f t="shared" si="21"/>
         <v>48 (12)</v>
       </c>
-      <c r="F110" s="39" t="str">
+      <c r="F110" s="38" t="str">
         <f t="shared" si="22"/>
         <v>50 (14)</v>
       </c>
-      <c r="G110" s="39" t="str">
+      <c r="G110" s="38" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H110" s="38">
+      <c r="H110" s="37">
         <f t="shared" si="17"/>
         <v>3.72793123688149E-26</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="28" t="s">
+    <row r="111" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C111" s="39" t="str">
+      <c r="C111" s="38" t="str">
         <f t="shared" si="19"/>
         <v>7 (17)</v>
       </c>
-      <c r="D111" s="39" t="str">
+      <c r="D111" s="38" t="str">
         <f t="shared" si="20"/>
         <v>6 (14)</v>
       </c>
-      <c r="E111" s="39" t="str">
+      <c r="E111" s="38" t="str">
         <f t="shared" si="21"/>
         <v>6 (13)</v>
       </c>
-      <c r="F111" s="39" t="str">
+      <c r="F111" s="38" t="str">
         <f t="shared" si="22"/>
         <v>5 (12)</v>
       </c>
-      <c r="G111" s="39">
+      <c r="G111" s="38">
         <f t="shared" si="16"/>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H111" s="38">
+      <c r="H111" s="37">
         <f t="shared" si="17"/>
         <v>5.7903000498847598E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="47" t="s">
+    <row r="112" spans="1:27" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B112" s="48" t="s">
+      <c r="B112" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="48" t="str">
+      <c r="C112" s="47" t="str">
         <f t="shared" ref="C112" si="23">CONCATENATE(ROUND(D89, 0), " (",ROUND(H89,0),")")</f>
         <v>17 (11)</v>
       </c>
-      <c r="D112" s="48" t="str">
+      <c r="D112" s="47" t="str">
         <f t="shared" ref="D112" si="24">CONCATENATE(ROUND(E89, 0), " (",ROUND(I89,0),")")</f>
         <v>14 (8)</v>
       </c>
-      <c r="E112" s="48" t="str">
+      <c r="E112" s="47" t="str">
         <f t="shared" ref="E112" si="25">CONCATENATE(ROUND(F89, 0), " (",ROUND(J89,0),")")</f>
         <v>12 (8)</v>
       </c>
-      <c r="F112" s="48" t="str">
+      <c r="F112" s="47" t="str">
         <f t="shared" ref="F112" si="26">CONCATENATE(ROUND(G89, 0), " (",ROUND(K89,0),")")</f>
         <v>11 (7)</v>
       </c>
-      <c r="G112" s="48" t="str">
+      <c r="G112" s="47" t="str">
         <f t="shared" si="16"/>
         <v>&lt;0.0001</v>
       </c>
-      <c r="H112" s="38">
+      <c r="H112" s="37">
         <f t="shared" si="17"/>
         <v>3.7557936039960502E-36</v>
       </c>
     </row>
-    <row r="113" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,7 +5510,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{C0941825-3858-463D-9A0C-A7701F9C100F}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{07FC28DC-BEA2-49E7-857D-B5E552A93230}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5616,16 +5521,16 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D11:G11</xm:f>
-              <xm:sqref>N11</xm:sqref>
+              <xm:f>Sheet1!D78:G78</xm:f>
+              <xm:sqref>N78</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D12:G12</xm:f>
-              <xm:sqref>N12</xm:sqref>
+              <xm:f>Sheet1!D79:G79</xm:f>
+              <xm:sqref>N79</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{4C406C62-CD54-4B85-9BCA-17AEFE921E5B}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{48F4925E-3B91-4E31-9ADB-E7552CAE921D}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5636,68 +5541,68 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D5:G5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>Sheet1!D72:G72</xm:f>
+              <xm:sqref>N72</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D6:G6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>Sheet1!D73:G73</xm:f>
+              <xm:sqref>N73</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D7:G7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>Sheet1!D74:G74</xm:f>
+              <xm:sqref>N74</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D8:G8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>Sheet1!D75:G75</xm:f>
+              <xm:sqref>N75</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D9:G9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>Sheet1!D76:G76</xm:f>
+              <xm:sqref>N76</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D10:G10</xm:f>
-              <xm:sqref>N10</xm:sqref>
+              <xm:f>Sheet1!D77:G77</xm:f>
+              <xm:sqref>N77</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D13:G13</xm:f>
-              <xm:sqref>N13</xm:sqref>
+              <xm:f>Sheet1!D80:G80</xm:f>
+              <xm:sqref>N80</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D14:G14</xm:f>
-              <xm:sqref>N14</xm:sqref>
+              <xm:f>Sheet1!D81:G81</xm:f>
+              <xm:sqref>N81</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D15:G15</xm:f>
-              <xm:sqref>N15</xm:sqref>
+              <xm:f>Sheet1!D82:G82</xm:f>
+              <xm:sqref>N82</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D16:G16</xm:f>
-              <xm:sqref>N16</xm:sqref>
+              <xm:f>Sheet1!D83:G83</xm:f>
+              <xm:sqref>N83</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D17:G17</xm:f>
-              <xm:sqref>N17</xm:sqref>
+              <xm:f>Sheet1!D84:G84</xm:f>
+              <xm:sqref>N84</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D18:G18</xm:f>
-              <xm:sqref>N18</xm:sqref>
+              <xm:f>Sheet1!D85:G85</xm:f>
+              <xm:sqref>N85</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D19:G19</xm:f>
-              <xm:sqref>N19</xm:sqref>
+              <xm:f>Sheet1!D86:G86</xm:f>
+              <xm:sqref>N86</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D21:G21</xm:f>
-              <xm:sqref>N21</xm:sqref>
+              <xm:f>Sheet1!D88:G88</xm:f>
+              <xm:sqref>N88</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D20:G20</xm:f>
-              <xm:sqref>N20</xm:sqref>
+              <xm:f>Sheet1!D87:G87</xm:f>
+              <xm:sqref>N87</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D22:G22</xm:f>
-              <xm:sqref>N22</xm:sqref>
+              <xm:f>Sheet1!D89:G89</xm:f>
+              <xm:sqref>N89</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5785,7 +5690,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{48F4925E-3B91-4E31-9ADB-E7552CAE921D}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{4C406C62-CD54-4B85-9BCA-17AEFE921E5B}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5796,72 +5701,72 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D72:G72</xm:f>
-              <xm:sqref>N72</xm:sqref>
+              <xm:f>Sheet1!D5:G5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D73:G73</xm:f>
-              <xm:sqref>N73</xm:sqref>
+              <xm:f>Sheet1!D6:G6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D74:G74</xm:f>
-              <xm:sqref>N74</xm:sqref>
+              <xm:f>Sheet1!D7:G7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D75:G75</xm:f>
-              <xm:sqref>N75</xm:sqref>
+              <xm:f>Sheet1!D8:G8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D76:G76</xm:f>
-              <xm:sqref>N76</xm:sqref>
+              <xm:f>Sheet1!D9:G9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D77:G77</xm:f>
-              <xm:sqref>N77</xm:sqref>
+              <xm:f>Sheet1!D10:G10</xm:f>
+              <xm:sqref>N10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D80:G80</xm:f>
-              <xm:sqref>N80</xm:sqref>
+              <xm:f>Sheet1!D13:G13</xm:f>
+              <xm:sqref>N13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D81:G81</xm:f>
-              <xm:sqref>N81</xm:sqref>
+              <xm:f>Sheet1!D14:G14</xm:f>
+              <xm:sqref>N14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D82:G82</xm:f>
-              <xm:sqref>N82</xm:sqref>
+              <xm:f>Sheet1!D15:G15</xm:f>
+              <xm:sqref>N15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D83:G83</xm:f>
-              <xm:sqref>N83</xm:sqref>
+              <xm:f>Sheet1!D16:G16</xm:f>
+              <xm:sqref>N16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D84:G84</xm:f>
-              <xm:sqref>N84</xm:sqref>
+              <xm:f>Sheet1!D17:G17</xm:f>
+              <xm:sqref>N17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D85:G85</xm:f>
-              <xm:sqref>N85</xm:sqref>
+              <xm:f>Sheet1!D18:G18</xm:f>
+              <xm:sqref>N18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D86:G86</xm:f>
-              <xm:sqref>N86</xm:sqref>
+              <xm:f>Sheet1!D19:G19</xm:f>
+              <xm:sqref>N19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D88:G88</xm:f>
-              <xm:sqref>N88</xm:sqref>
+              <xm:f>Sheet1!D21:G21</xm:f>
+              <xm:sqref>N21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D87:G87</xm:f>
-              <xm:sqref>N87</xm:sqref>
+              <xm:f>Sheet1!D20:G20</xm:f>
+              <xm:sqref>N20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D89:G89</xm:f>
-              <xm:sqref>N89</xm:sqref>
+              <xm:f>Sheet1!D22:G22</xm:f>
+              <xm:sqref>N22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{07FC28DC-BEA2-49E7-857D-B5E552A93230}">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{C0941825-3858-463D-9A0C-A7701F9C100F}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5872,12 +5777,12 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet1!D78:G78</xm:f>
-              <xm:sqref>N78</xm:sqref>
+              <xm:f>Sheet1!D11:G11</xm:f>
+              <xm:sqref>N11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>Sheet1!D79:G79</xm:f>
-              <xm:sqref>N79</xm:sqref>
+              <xm:f>Sheet1!D12:G12</xm:f>
+              <xm:sqref>N12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
